--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail14 Features.xlsx
@@ -5017,7 +5017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5028,29 +5028,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5071,115 +5069,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5196,72 +5184,66 @@
         <v>1.758125773969747e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.882279074732472</v>
+        <v>1.163833279690621e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>15.56347787608431</v>
+        <v>2.412417978287242e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.163833279690621e-07</v>
+        <v>-0.1086281932414531</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.412417978287242e-07</v>
+        <v>0.3265042609990635</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1086281932414531</v>
+        <v>0.1181235361508236</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3265042609990635</v>
+        <v>1.895949159162522</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1181235361508236</v>
+        <v>4.30019172628102</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.933897348698997</v>
+        <v>8.320638621020617</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.30019172628102</v>
+        <v>8.732629390617405e-20</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.320638621020617</v>
+        <v>314917174026.7003</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.732629390617405e-20</v>
+        <v>3.796739516997248e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>314917174026.7003</v>
+        <v>8660.395394179801</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.796739516997248e-10</v>
+        <v>3.528440191173606e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8660.395394179801</v>
+        <v>8.166496483018674</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.528440191173606e-06</v>
+        <v>1.717526755866664</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.166496483018674</v>
+        <v>0.0002353175505218489</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.717526755866664</v>
+        <v>8.863535983321519</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0002353175505218489</v>
+        <v>0.961354780283783</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.863535983321519</v>
+        <v>0.6852504282871512</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.961354780283783</v>
+        <v>664</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6852504282871512</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>664</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>19.76616173390667</v>
       </c>
     </row>
@@ -5276,72 +5258,66 @@
         <v>1.266018901062439e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.916277694387033</v>
+        <v>8.450491702417762e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>15.85310077304992</v>
+        <v>2.396138804373333e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.450491702417762e-08</v>
+        <v>-0.1087781239854211</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.396138804373333e-07</v>
+        <v>0.3312839823910091</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1087781239854211</v>
+        <v>0.1212848204936487</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3312839823910091</v>
+        <v>1.895237792956018</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1212848204936487</v>
+        <v>3.775444319881826</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.937686783477595</v>
+        <v>8.864694355368766</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.775444319881826</v>
+        <v>9.097966461492511e-20</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.864694355368766</v>
+        <v>308813129058.8453</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.097966461492511e-20</v>
+        <v>3.862231654683715e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>308813129058.8453</v>
+        <v>8676.325634644199</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.862231654683715e-10</v>
+        <v>5.092335937501653e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8676.325634644199</v>
+        <v>7.606479758539091</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.092335937501653e-06</v>
+        <v>1.585696077262605</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.606479758539091</v>
+        <v>0.0002946350935939623</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.585696077262605</v>
+        <v>8.656711168406396</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0002946350935939623</v>
+        <v>0.9613542628605664</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.656711168406396</v>
+        <v>0.6813488968367476</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9613542628605664</v>
+        <v>666</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6813488968367476</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>666</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>18.11262540522434</v>
       </c>
     </row>
@@ -5356,72 +5332,66 @@
         <v>9.071957998427176e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.954079094264412</v>
+        <v>6.118798201219737e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>16.1863406826846</v>
+        <v>2.384430597200199e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>6.118798201219737e-08</v>
+        <v>-0.1088307695757798</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.384430597200199e-07</v>
+        <v>0.3371723644073978</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1088307695757798</v>
+        <v>0.1252189728644852</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3371723644073978</v>
+        <v>1.893794947289381</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1252189728644852</v>
+        <v>4.222035215569266</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.936791734739015</v>
+        <v>8.837945135301997</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>4.222035215569266</v>
+        <v>9.153122222106184e-20</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.837945135301997</v>
+        <v>307039565554.8597</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.153122222106184e-20</v>
+        <v>3.881557257132517e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>307039565554.8597</v>
+        <v>8628.949897325683</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.881557257132517e-10</v>
+        <v>6.226291358221648e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8628.949897325683</v>
+        <v>7.200694900387218</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.226291358221648e-06</v>
+        <v>1.544818303338916</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.200694900387218</v>
+        <v>0.0003228332508095736</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.544818303338916</v>
+        <v>8.541261574895501</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0003228332508095736</v>
+        <v>0.9610678434031497</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.541261574895501</v>
+        <v>0.679667358040465</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9610678434031497</v>
+        <v>658</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.679667358040465</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>658</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>17.17176680458338</v>
       </c>
     </row>
@@ -5436,72 +5406,66 @@
         <v>6.464952185816325e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.994749265692355</v>
+        <v>4.416528534133763e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>16.57737265240409</v>
+        <v>2.376067322632181e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.416528534133763e-08</v>
+        <v>-0.1086571501602971</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.376067322632181e-07</v>
+        <v>0.3443184177904912</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1086571501602971</v>
+        <v>0.1300386109167864</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3443184177904912</v>
+        <v>1.899093926372173</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1300386109167864</v>
+        <v>3.653767783774437</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.939906092392425</v>
+        <v>8.700450065612786</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.653767783774437</v>
+        <v>9.444705625914764e-20</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.700450065612786</v>
+        <v>304369489138.8541</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.444705625914764e-20</v>
+        <v>3.933996347011409e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>304369489138.8541</v>
+        <v>8749.64951955011</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.933996347011409e-10</v>
+        <v>5.72508977170941e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8749.64951955011</v>
+        <v>7.407879679810382</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.72508977170941e-06</v>
+        <v>1.662481741046113</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.407879679810382</v>
+        <v>0.0003141739271053764</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.662481741046113</v>
+        <v>8.575101415631488</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0003141739271053764</v>
+        <v>0.9627836636749213</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.575101415631488</v>
+        <v>0.7154507913706708</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9627836636749213</v>
+        <v>645</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.7154507913706708</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>645</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>17.20880610134952</v>
       </c>
     </row>
@@ -5516,72 +5480,66 @@
         <v>4.576813013369442e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>4.029500832577815</v>
+        <v>3.179177096379828e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>17.00091982566239</v>
+        <v>2.370140390373471e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.179177096379828e-08</v>
+        <v>-0.1082282691401255</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.370140390373471e-07</v>
+        <v>0.3538966903881268</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1082282691401255</v>
+        <v>0.1366159103778604</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3538966903881268</v>
+        <v>1.897474007610763</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1366159103778604</v>
+        <v>3.626776622108395</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.94251504230561</v>
+        <v>8.616528314383089</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.626776622108395</v>
+        <v>9.629577328116589e-20</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.616528314383089</v>
+        <v>303401058753.1458</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.629577328116589e-20</v>
+        <v>3.945560207466922e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>303401058753.1458</v>
+        <v>8864.238017400792</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.945560207466922e-10</v>
+        <v>4.389897995763385e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>8864.238017400792</v>
+        <v>7.517817370663915</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.389897995763385e-06</v>
+        <v>1.85194856471399</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.517817370663915</v>
+        <v>0.0002481064024694991</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.85194856471399</v>
+        <v>8.730311159548236</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0002481064024694991</v>
+        <v>0.9622338675907491</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.730311159548236</v>
+        <v>0.7014697062744097</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9622338675907491</v>
+        <v>637</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.7014697062744097</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>637</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>17.6523063752069</v>
       </c>
     </row>
@@ -5596,72 +5554,66 @@
         <v>3.215971602477753e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4.029984722103062</v>
+        <v>2.280682297909387e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>17.31172182733736</v>
+        <v>2.365984615483159e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.280682297909387e-08</v>
+        <v>-0.1072465801438025</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.365984615483159e-07</v>
+        <v>0.3665476875967681</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1072465801438025</v>
+        <v>0.1454955711332018</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3665476875967681</v>
+        <v>1.898061367331349</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1454955711332018</v>
+        <v>3.700024381960687</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.943844143937497</v>
+        <v>8.79308863414728</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.700024381960687</v>
+        <v>9.246746726623081e-20</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.79308863414728</v>
+        <v>304042804151.9786</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.246746726623081e-20</v>
+        <v>3.929288291557894e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>304042804151.9786</v>
+        <v>8547.880083139795</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.929288291557894e-10</v>
+        <v>3.957451384893375e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>8547.880083139795</v>
+        <v>8.391965561506103</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.957451384893375e-06</v>
+        <v>1.754817179694922</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.391965561506103</v>
+        <v>0.0002787038540645697</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.754817179694922</v>
+        <v>8.783862575984729</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0002787038540645697</v>
+        <v>0.963360133432419</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.783862575984729</v>
+        <v>0.7005549079760098</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.963360133432419</v>
+        <v>635</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.7005549079760098</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>635</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>17.99202233022819</v>
       </c>
     </row>
@@ -5676,72 +5628,66 @@
         <v>2.245131191324578e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.923392543473387</v>
+        <v>1.627802736160699e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17.06548697505888</v>
+        <v>2.363114669922837e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.627802736160699e-08</v>
+        <v>-0.1049341714462107</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.363114669922837e-07</v>
+        <v>0.3818235300144274</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1049341714462107</v>
+        <v>0.1564053809041842</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3818235300144274</v>
+        <v>1.89855403523434</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1564053809041842</v>
+        <v>3.769519491069597</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.940309754503008</v>
+        <v>8.686813192748788</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.769519491069597</v>
+        <v>9.474382180826014e-20</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.686813192748788</v>
+        <v>295755232380.0427</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.474382180826014e-20</v>
+        <v>4.041388853217345e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>295755232380.0427</v>
+        <v>8287.351757663777</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.041388853217345e-10</v>
+        <v>4.705817331833227e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>8287.351757663777</v>
+        <v>7.932830504780542</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>4.705817331833227e-06</v>
+        <v>1.703211952979962</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.932830504780542</v>
+        <v>0.0002961361426703479</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.703211952979962</v>
+        <v>8.690906255151335</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0002961361426703479</v>
+        <v>0.9651119236744897</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.690906255151335</v>
+        <v>0.7491187438882333</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9651119236744897</v>
+        <v>631</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.7491187438882333</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>631</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>17.60718570123092</v>
       </c>
     </row>
@@ -5756,72 +5702,66 @@
         <v>1.569226390188446e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.557659479678736</v>
+        <v>1.153301734973901e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>15.28026658921536</v>
+        <v>2.361181447950214e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.153301734973901e-08</v>
+        <v>-0.09928123421250534</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.361181447950214e-07</v>
+        <v>0.3962814028792697</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.09928123421250534</v>
+        <v>0.1664700605555694</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3962814028792697</v>
+        <v>1.896974706168589</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1664700605555694</v>
+        <v>3.595777561100157</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.941813420962612</v>
+        <v>8.295552901925799</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.595777561100157</v>
+        <v>9.433842272727376e-20</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.295552901925799</v>
+        <v>294758035279.0436</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.433842272727376e-20</v>
+        <v>4.046954685781769e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>294758035279.0436</v>
+        <v>8196.339084688578</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.046954685781769e-10</v>
+        <v>5.125968546864334e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>8196.339084688578</v>
+        <v>7.21359611589461</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5.125968546864334e-06</v>
+        <v>1.711347178756348</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.21359611589461</v>
+        <v>0.0002667347400061885</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.711347178756348</v>
+        <v>8.621033910451427</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0002667347400061885</v>
+        <v>0.9641002353378418</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.621033910451427</v>
+        <v>0.7498185997980044</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9641002353378418</v>
+        <v>618</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.7498185997980044</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>618</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>17.29790978430059</v>
       </c>
     </row>
@@ -5836,72 +5776,66 @@
         <v>1.123533049594204e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.724374737822111</v>
+        <v>8.098678684064412e-09</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>10.63202178800959</v>
+        <v>2.359932081644852e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>8.098678684064412e-09</v>
+        <v>-0.08682815357482834</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2.359932081644852e-07</v>
+        <v>0.4007149417582717</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.08682815357482834</v>
+        <v>0.167678740306348</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.4007149417582717</v>
+        <v>1.895554978411504</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.167678740306348</v>
+        <v>4.301429328666621</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.940423771210141</v>
+        <v>8.173519180821977</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>4.301429328666621</v>
+        <v>9.282686492771279e-20</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.173519180821977</v>
+        <v>290733195304.6653</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>9.282686492771279e-20</v>
+        <v>4.07586233698817e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>290733195304.6653</v>
+        <v>7846.264170332336</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.07586233698817e-10</v>
+        <v>4.74764591296211e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7846.264170332336</v>
+        <v>6.711268826187719</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>4.74764591296211e-06</v>
+        <v>1.823786521196984</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.711268826187719</v>
+        <v>0.0002138393332338989</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.823786521196984</v>
+        <v>8.622755948950868</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0002138393332338989</v>
+        <v>0.9636278348568477</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.622755948950868</v>
+        <v>0.7535289020106118</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9636278348568477</v>
+        <v>611</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.7535289020106118</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>611</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>17.00705692234202</v>
       </c>
     </row>
@@ -5916,72 +5850,66 @@
         <v>8.621051094556018e-10</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1.501774875791029</v>
+        <v>5.621332308282149e-09</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3.91991674205269</v>
+        <v>2.359181299575886e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.621332308282149e-09</v>
+        <v>-0.06393352593031591</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.359181299575886e-07</v>
+        <v>0.3772793362082222</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.06393352593031591</v>
+        <v>0.1460446448560714</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3772793362082222</v>
+        <v>1.892860485122155</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.1460446448560714</v>
+        <v>4.30033177099217</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.938628094537207</v>
+        <v>8.145825534073314</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>4.30033177099217</v>
+        <v>9.345911128972206e-20</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.145825534073314</v>
+        <v>289506217803.5592</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>9.345911128972206e-20</v>
+        <v>4.090298574891124e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>289506217803.5592</v>
+        <v>7833.167948501258</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.090298574891124e-10</v>
+        <v>4.672035890056869e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7833.167948501258</v>
+        <v>7.003116853977977</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>4.672035890056869e-06</v>
+        <v>1.74453574528873</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.003116853977977</v>
+        <v>0.0002291336727516698</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.74453574528873</v>
+        <v>8.637289209580718</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0002291336727516698</v>
+        <v>0.9637290725211217</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.637289209580718</v>
+        <v>0.7757593176502835</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9637290725211217</v>
+        <v>610</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.7757593176502835</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>610</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>16.34571624381568</v>
       </c>
     </row>
@@ -5996,72 +5924,66 @@
         <v>7.417153219443624e-10</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.6118519524083488</v>
+        <v>3.841958225961651e-09</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.2574645347362834</v>
+        <v>2.358793893837862e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.841958225961651e-09</v>
+        <v>-0.03264123798573379</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.358793893837862e-07</v>
+        <v>0.3159848062620473</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03264123798573379</v>
+        <v>0.1006477138718116</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3159848062620473</v>
+        <v>1.892335551249117</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1006477138718116</v>
+        <v>4.293809075915053</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.938787386418462</v>
+        <v>8.132179324491169</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.293809075915053</v>
+        <v>9.377303271980524e-20</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.132179324491169</v>
+        <v>289219642979.866</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>9.377303271980524e-20</v>
+        <v>4.102717960590536e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>289219642979.866</v>
+        <v>7843.926817746053</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.102717960590536e-10</v>
+        <v>4.19228418097825e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7843.926817746053</v>
+        <v>8.205214610912677</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>4.19228418097825e-06</v>
+        <v>1.628530544748356</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.205214610912677</v>
+        <v>0.0002822478248720314</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.628530544748356</v>
+        <v>8.706535860145664</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.0002822478248720314</v>
+        <v>0.96386202464824</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.706535860145664</v>
+        <v>0.77005863381235</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.96386202464824</v>
+        <v>616</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.77005863381235</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>16.32269423576147</v>
       </c>
     </row>
@@ -6076,72 +5998,66 @@
         <v>7.10405264301302e-10</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.3926805084152302</v>
+        <v>2.58376391575443e-09</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.013393568358375</v>
+        <v>2.358670164136473e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.58376391575443e-09</v>
+        <v>-0.002704225536728065</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>2.358670164136473e-07</v>
+        <v>0.2392262491671727</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.002704225536728065</v>
+        <v>0.05709465545381704</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2392262491671727</v>
+        <v>1.895643083064987</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.05709465545381704</v>
+        <v>3.800563444584145</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.939025757895368</v>
+        <v>8.042454644755601</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.800563444584145</v>
+        <v>9.587703932673201e-20</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.042454644755601</v>
+        <v>288563861101.8668</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.587703932673201e-20</v>
+        <v>4.118553752307346e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>288563861101.8668</v>
+        <v>7983.594960829447</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.118553752307346e-10</v>
+        <v>3.41546743947986e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7983.594960829447</v>
+        <v>8.349350427733544</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>3.41546743947986e-06</v>
+        <v>1.585715939739845</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.349350427733544</v>
+        <v>0.0002380978794884123</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.585715939739845</v>
+        <v>8.834411271928273</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0002380978794884123</v>
+        <v>0.9640197450671156</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>8.834411271928273</v>
+        <v>0.7656967137714855</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9640197450671156</v>
+        <v>616</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7656967137714855</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>616</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>17.17868563980068</v>
       </c>
     </row>
@@ -6156,72 +6072,66 @@
         <v>7.211454546132647e-10</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4222396076653669</v>
+        <v>2.557392232667755e-09</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9760700853737596</v>
+        <v>2.358736501999444e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.557392232667755e-09</v>
+        <v>0.019776823945931</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.358736501999444e-07</v>
+        <v>0.1731343443262485</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.019776823945931</v>
+        <v>0.03029786867447652</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1731343443262485</v>
+        <v>1.894505103811091</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03029786867447652</v>
+        <v>4.311387444590372</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.941501325115067</v>
+        <v>8.089700138275369</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.311387444590372</v>
+        <v>9.476042669361657e-20</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.089700138275369</v>
+        <v>291574853432.1557</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.476042669361657e-20</v>
+        <v>4.075923592342011e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>291574853432.1557</v>
+        <v>8056.142500531206</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.075923592342011e-10</v>
+        <v>2.385043566426624e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>8056.142500531206</v>
+        <v>7.2416968659282</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.385043566426624e-06</v>
+        <v>1.783171093907331</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.2416968659282</v>
+        <v>0.0001250768685108201</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.783171093907331</v>
+        <v>8.999698095800163</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001250768685108201</v>
+        <v>0.964336188699484</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.999698095800163</v>
+        <v>0.7329699851869945</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.964336188699484</v>
+        <v>608</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7329699851869945</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>608</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>18.92620920452452</v>
       </c>
     </row>
@@ -6236,72 +6146,66 @@
         <v>7.462687139672383e-10</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.4417662224299258</v>
+        <v>2.653633750374693e-09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9896960266769321</v>
+        <v>2.358942191467108e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.653633750374693e-09</v>
+        <v>0.03505944167976972</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.358942191467108e-07</v>
+        <v>0.1259003247038964</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03505944167976972</v>
+        <v>0.0170486618737664</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1259003247038964</v>
+        <v>1.8959258921914</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0170486618737664</v>
+        <v>4.098924512616135</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.937424281395888</v>
+        <v>8.172951209980287</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.098924512616135</v>
+        <v>9.283976719109688e-20</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>8.172951209980287</v>
+        <v>296511548907.5935</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.283976719109688e-20</v>
+        <v>3.998336096028541e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>296511548907.5935</v>
+        <v>8162.388648978351</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.998336096028541e-10</v>
+        <v>2.201924244291787e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8162.388648978351</v>
+        <v>6.461240624209373</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>2.201924244291787e-06</v>
+        <v>2.161648241982067</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>6.461240624209373</v>
+        <v>9.192511952815416e-05</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>2.161648241982067</v>
+        <v>9.03081121704002</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>9.192511952815416e-05</v>
+        <v>0.9651279016243739</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>9.03081121704002</v>
+        <v>0.7472986436164302</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9651279016243739</v>
+        <v>620</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.7472986436164302</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>620</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>20.05376263520427</v>
       </c>
     </row>
@@ -6316,72 +6220,66 @@
         <v>7.731871797936817e-10</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.428535042152268</v>
+        <v>2.736274404575487e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.022343510810083</v>
+        <v>2.359249061403808e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.736274404575487e-09</v>
+        <v>0.04484153322825913</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.359249061403808e-07</v>
+        <v>0.0944811737497773</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04484153322825913</v>
+        <v>0.01092355974500667</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0944811737497773</v>
+        <v>1.901917627631728</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01092355974500667</v>
+        <v>3.974423154468488</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.946983062810036</v>
+        <v>8.504111144814154</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>3.974423154468488</v>
+        <v>9.21914522348771e-20</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>8.504111144814154</v>
+        <v>311112389018.2026</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.21914522348771e-20</v>
+        <v>3.846992435770935e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>311112389018.2026</v>
+        <v>8923.295348938334</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.846992435770935e-10</v>
+        <v>3.031290878769886e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8923.295348938334</v>
+        <v>6.589139129612406</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>3.031290878769886e-06</v>
+        <v>1.995516866497256</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.589139129612406</v>
+        <v>0.0001316088118088516</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.995516866497256</v>
+        <v>8.89081684104957</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0001316088118088516</v>
+        <v>0.9655507163368121</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>8.89081684104957</v>
+        <v>0.7451717221765212</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9655507163368121</v>
+        <v>626</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.7451717221765212</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>626</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>19.10615229585555</v>
       </c>
     </row>
@@ -6396,72 +6294,66 @@
         <v>7.971421013861918e-10</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4054768706041217</v>
+        <v>2.811437184629712e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.037996712969404</v>
+        <v>2.359628171803666e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.811437184629712e-09</v>
+        <v>0.05115421488522148</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.359628171803666e-07</v>
+        <v>0.07461149640818805</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.05115421488522148</v>
+        <v>0.008177748685174631</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07461149640818805</v>
+        <v>1.905301117714973</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.008177748685174631</v>
+        <v>4.033049872478363</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.948223288115863</v>
+        <v>8.505884763883387</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.033049872478363</v>
+        <v>9.215300932747902e-20</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.505884763883387</v>
+        <v>311444188137.5928</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.215300932747902e-20</v>
+        <v>3.842782502671841e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>311444188137.5928</v>
+        <v>8938.609893408615</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.842782502671841e-10</v>
+        <v>3.669322439383931e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8938.609893408615</v>
+        <v>7.276572659765855</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.669322439383931e-06</v>
+        <v>1.636946236739053</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.276572659765855</v>
+        <v>0.0001942851546745327</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.636946236739053</v>
+        <v>8.737852487621836</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0001942851546745327</v>
+        <v>0.9641086496487065</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>8.737852487621836</v>
+        <v>0.771070213360378</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9641086496487065</v>
+        <v>617</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.771070213360378</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>617</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>17.76622326588649</v>
       </c>
     </row>
@@ -6476,72 +6368,66 @@
         <v>8.171000100728453e-10</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.3875272465593414</v>
+        <v>2.882193599178717e-09</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.041758990286574</v>
+        <v>2.360059015014248e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.882193599178717e-09</v>
+        <v>0.0552127878578717</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.360059015014248e-07</v>
+        <v>0.06286585007241755</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0552127878578717</v>
+        <v>0.006998384372975217</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.06286585007241755</v>
+        <v>1.90831750079957</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.006998384372975217</v>
+        <v>3.763316662759521</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.948621232947487</v>
+        <v>8.656321484281946</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.763316662759521</v>
+        <v>8.824684787177134e-20</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>8.656321484281946</v>
+        <v>318583630130.5239</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>8.824684787177134e-20</v>
+        <v>3.766715360685183e-10</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>318583630130.5239</v>
+        <v>8956.660541492058</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.766715360685183e-10</v>
+        <v>4.046769125106592e-06</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>8956.660541492058</v>
+        <v>7.446882443251931</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>4.046769125106592e-06</v>
+        <v>1.583034195236335</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.446882443251931</v>
+        <v>0.0002244178638147571</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.583034195236335</v>
+        <v>8.686954962189137</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.0002244178638147571</v>
+        <v>0.9649276350372217</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>8.686954962189137</v>
+        <v>0.7428130702050445</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9649276350372217</v>
+        <v>637</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.7428130702050445</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>637</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>17.13180244066468</v>
       </c>
     </row>
@@ -6556,72 +6442,66 @@
         <v>8.334781516216024e-10</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3791884777204855</v>
+        <v>2.950306163977911e-09</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.045222717304859</v>
+        <v>2.36052627470666e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.950306163977911e-09</v>
+        <v>0.05775404171836469</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.36052627470666e-07</v>
+        <v>0.05645610476205669</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.05775404171836469</v>
+        <v>0.006522168947455988</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.05645610476205669</v>
+        <v>1.917187359449249</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.006522168947455988</v>
+        <v>4.262488853357859</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.953500669743083</v>
+        <v>8.670926813145956</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>4.262488853357859</v>
+        <v>8.794981186379125e-20</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>8.670926813145956</v>
+        <v>320237053379.6688</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>8.794981186379125e-20</v>
+        <v>3.751429212017604e-10</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>320237053379.6688</v>
+        <v>9019.408909222628</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.751429212017604e-10</v>
+        <v>3.529530314993222e-06</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>9019.408909222628</v>
+        <v>6.726960933545619</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>3.529530314993222e-06</v>
+        <v>1.675165402915716</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>6.726960933545619</v>
+        <v>0.0001597183178195904</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.675165402915716</v>
+        <v>8.788449029276149</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0001597183178195904</v>
+        <v>0.9641271951882997</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>8.788449029276149</v>
+        <v>0.7297429484198029</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9641271951882997</v>
+        <v>649</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.7297429484198029</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>649</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>17.88541119695365</v>
       </c>
     </row>
@@ -6636,72 +6516,66 @@
         <v>8.472970838257746e-10</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3797490492091424</v>
+        <v>3.02274277722219e-09</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.053918419446762</v>
+        <v>2.361018843581507e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>3.02274277722219e-09</v>
+        <v>0.05927206492527606</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.361018843581507e-07</v>
+        <v>0.05339292853976486</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.05927206492527606</v>
+        <v>0.006363869393581903</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05339292853976486</v>
+        <v>1.914736262562454</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.006363869393581903</v>
+        <v>4.255188362922121</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.951744029125978</v>
+        <v>8.684501554708639</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>4.255188362922121</v>
+        <v>8.386635529848409e-20</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>8.684501554708639</v>
+        <v>325708745837.22</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8.386635529848409e-20</v>
+        <v>3.675169086346556e-10</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>325708745837.22</v>
+        <v>8897.061860835878</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.675169086346556e-10</v>
+        <v>2.738729443618363e-06</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>8897.061860835878</v>
+        <v>5.752437927396942</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>2.738729443618363e-06</v>
+        <v>2.011752581277688</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>5.752437927396942</v>
+        <v>9.062604197799235e-05</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>2.011752581277688</v>
+        <v>8.926675000672788</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>9.062604197799235e-05</v>
+        <v>0.9624588099288097</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>8.926675000672788</v>
+        <v>0.7403433037176929</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9624588099288097</v>
+        <v>657</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.7403433037176929</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>657</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>19.41967969062126</v>
       </c>
     </row>
@@ -6716,72 +6590,66 @@
         <v>8.597885943831008e-10</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3864752076346474</v>
+        <v>3.102847247335843e-09</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.067307584760496</v>
+        <v>2.361528826430574e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>3.102847247335843e-09</v>
+        <v>0.06014662898057369</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.361528826430574e-07</v>
+        <v>0.05202905659661753</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.06014662898057369</v>
+        <v>0.006324483023664022</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05202905659661753</v>
+        <v>1.911839905440234</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.006324483023664022</v>
+        <v>4.329627432697758</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.949777035795727</v>
+        <v>8.636226656401075</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>4.329627432697758</v>
+        <v>8.480657039613682e-20</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>8.636226656401075</v>
+        <v>322365188711.2577</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.480657039613682e-20</v>
+        <v>3.713033944176439e-10</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>322365188711.2577</v>
+        <v>8813.040693978352</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.713033944176439e-10</v>
+        <v>2.592101315113461e-06</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>8813.040693978352</v>
+        <v>5.835045715962735</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>2.592101315113461e-06</v>
+        <v>2.518583846333057</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>5.835045715962735</v>
+        <v>8.825523960363245e-05</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>2.518583846333057</v>
+        <v>8.998537637303963</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>8.825523960363245e-05</v>
+        <v>0.9628597695771861</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>8.998537637303963</v>
+        <v>0.6944450564456391</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9628597695771861</v>
+        <v>654</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.6944450564456391</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>654</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>20.54565021430101</v>
       </c>
     </row>
@@ -6796,72 +6664,66 @@
         <v>8.719996831353693e-10</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3965334689603098</v>
+        <v>3.159898558584331e-09</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.082418355864765</v>
+        <v>2.362051233742161e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>3.159898558584331e-09</v>
+        <v>0.06039604967883355</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.362051233742161e-07</v>
+        <v>0.05127250620386535</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.06039604967883355</v>
+        <v>0.006276425921389065</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05127250620386535</v>
+        <v>1.915826050947672</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.006276425921389065</v>
+        <v>4.354836887886695</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.953522635692803</v>
+        <v>8.715444826084459</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>4.354836887886695</v>
+        <v>8.327189508925863e-20</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.715444826084459</v>
+        <v>330993192918.7076</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>8.327189508925863e-20</v>
+        <v>3.618022753299232e-10</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>330993192918.7076</v>
+        <v>9122.976854606559</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>3.618022753299232e-10</v>
+        <v>2.412863069737908e-06</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9122.976854606559</v>
+        <v>6.062568078260689</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>2.412863069737908e-06</v>
+        <v>2.228924741429392</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>6.062568078260689</v>
+        <v>8.868413476561001e-05</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>2.228924741429392</v>
+        <v>8.995409604757844</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>8.868413476561001e-05</v>
+        <v>0.9625996555346238</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>8.995409604757844</v>
+        <v>0.7240983517692221</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9625996555346238</v>
+        <v>665</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.7240983517692221</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>665</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>21.11701754818289</v>
       </c>
     </row>
@@ -6876,72 +6738,66 @@
         <v>8.843871946938553e-10</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4058591804532076</v>
+        <v>3.187211723128397e-09</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.099225150553026</v>
+        <v>2.362580618503881e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.187211723128397e-09</v>
+        <v>0.06006591875556672</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.362580618503881e-07</v>
+        <v>0.05062391076270675</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.06006591875556672</v>
+        <v>0.006170487770318335</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05062391076270675</v>
+        <v>1.920668597028501</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.006170487770318335</v>
+        <v>4.175958713658152</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.961041667211159</v>
+        <v>8.83921206183707</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>4.175958713658152</v>
+        <v>8.095626396191704e-20</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>8.83921206183707</v>
+        <v>345145657326.0432</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>8.095626396191704e-20</v>
+        <v>3.480284186337575e-10</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>345145657326.0432</v>
+        <v>9643.957427965106</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>3.480284186337575e-10</v>
+        <v>2.8826605530084e-06</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>9643.957427965106</v>
+        <v>7.331456020339378</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>2.8826605530084e-06</v>
+        <v>1.859705961464397</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.331456020339378</v>
+        <v>0.0001549437178314953</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.859705961464397</v>
+        <v>8.892614907170239</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0001549437178314953</v>
+        <v>0.9617213162735117</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>8.892614907170239</v>
+        <v>0.692953338170515</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9617213162735117</v>
+        <v>685</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.692953338170515</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>20.38156422385639</v>
       </c>
     </row>
@@ -6956,72 +6812,66 @@
         <v>8.972807784015344e-10</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4115369036585965</v>
+        <v>3.201622645924042e-09</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.116952978155626</v>
+        <v>2.363112983577901e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.201622645924042e-09</v>
+        <v>0.0594711051506628</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.363112983577901e-07</v>
+        <v>0.04997012615929778</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0594711051506628</v>
+        <v>0.00603352914619588</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.04997012615929778</v>
+        <v>1.913054208726635</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.00603352914619588</v>
+        <v>3.643823467455031</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.960104563190272</v>
+        <v>9.094151910290829</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.643823467455031</v>
+        <v>7.648092911415905e-20</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>9.094151910290829</v>
+        <v>358319280838.5159</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>7.648092911415905e-20</v>
+        <v>3.346205822600137e-10</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>358319280838.5159</v>
+        <v>9819.593524419888</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>3.346205822600137e-10</v>
+        <v>3.252671687086074e-06</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9819.593524419888</v>
+        <v>7.062147014101493</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>3.252671687086074e-06</v>
+        <v>1.811119908444291</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>7.062147014101493</v>
+        <v>0.0001622234889677384</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.811119908444291</v>
+        <v>8.813540537709459</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.0001622234889677384</v>
+        <v>0.962301174049065</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>8.813540537709459</v>
+        <v>0.6915125133291962</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.962301174049065</v>
+        <v>698</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.6915125133291962</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>698</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>19.61061062680132</v>
       </c>
     </row>
@@ -7036,72 +6886,66 @@
         <v>9.109430111881257e-10</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4134853790171585</v>
+        <v>3.2199899303076e-09</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.133431166820782</v>
+        <v>2.363647953964086e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.2199899303076e-09</v>
+        <v>0.05891720786341362</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2.363647953964086e-07</v>
+        <v>0.04938413840050693</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05891720786341362</v>
+        <v>0.005909399901607955</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.04938413840050693</v>
+        <v>1.913710352955099</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005909399901607955</v>
+        <v>3.574617040617528</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.963378539693269</v>
+        <v>10.39680574317117</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.574617040617528</v>
+        <v>8.047713658102081e-20</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>10.39680574317117</v>
+        <v>343898186060.8203</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8.047713658102081e-20</v>
+        <v>3.497247018567798e-10</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>343898186060.8203</v>
+        <v>9517.706007012992</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.497247018567798e-10</v>
+        <v>3.191024215372528e-06</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>9517.706007012992</v>
+        <v>6.07530876765168</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>3.191024215372528e-06</v>
+        <v>1.965356932178563</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>6.07530876765168</v>
+        <v>0.0001177787145760811</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.965356932178563</v>
+        <v>8.819105918356119</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.0001177787145760811</v>
+        <v>0.9625841067674759</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>8.819105918356119</v>
+        <v>0.690340203695602</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9625841067674759</v>
+        <v>700</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.690340203695602</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>700</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>19.77188446192896</v>
       </c>
     </row>
@@ -7116,72 +6960,66 @@
         <v>9.260034272216119e-10</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.412548418611677</v>
+        <v>3.239660554571772e-09</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.144226198512002</v>
+        <v>2.364186414421841e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.239660554571772e-09</v>
+        <v>0.05831254588345944</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.364186414421841e-07</v>
+        <v>0.04880015481288269</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.05831254588345944</v>
+        <v>0.005781291868463581</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.04880015481288269</v>
+        <v>1.912950926358613</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.005781291868463581</v>
+        <v>3.918649074725815</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.958178061805523</v>
+        <v>10.27421935311432</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.918649074725815</v>
+        <v>8.24090120091108e-20</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>10.27421935311432</v>
+        <v>338493285808.2249</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>8.24090120091108e-20</v>
+        <v>3.558224457374253e-10</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>338493285808.2249</v>
+        <v>9442.23542918647</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.558224457374253e-10</v>
+        <v>3.202125651529948e-06</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>9442.23542918647</v>
+        <v>5.830320616705658</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>3.202125651529948e-06</v>
+        <v>2.053494570108246</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>5.830320616705658</v>
+        <v>0.0001088486996834866</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>2.053494570108246</v>
+        <v>8.843183592435343</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.0001088486996834866</v>
+        <v>0.9613566500521141</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>8.843183592435343</v>
+        <v>0.7377118179754959</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9613566500521141</v>
+        <v>692</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.7377118179754959</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>692</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>20.26421201634496</v>
       </c>
     </row>
@@ -7196,72 +7034,66 @@
         <v>9.4235610501308e-10</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.4081363329400444</v>
+        <v>3.254088154537653e-09</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.151090408244295</v>
+        <v>2.36472752879304e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.254088154537653e-09</v>
+        <v>0.05755519145117401</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.36472752879304e-07</v>
+        <v>0.04808221525188169</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05755519145117401</v>
+        <v>0.00562409919963618</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.04808221525188169</v>
+        <v>1.911675103040502</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.00562409919963618</v>
+        <v>3.447588668874284</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.958795802810291</v>
+        <v>10.32470126381032</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.447588668874284</v>
+        <v>8.160511582632574e-20</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>10.32470126381032</v>
+        <v>340134685532.3662</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>8.160511582632574e-20</v>
+        <v>3.529495973702826e-10</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>340134685532.3662</v>
+        <v>9441.02676921461</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.529495973702826e-10</v>
+        <v>3.262318824189607e-06</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>9441.02676921461</v>
+        <v>6.765959070125118</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>3.262318824189607e-06</v>
+        <v>1.936612512949307</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>6.765959070125118</v>
+        <v>0.000149343090574339</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.936612512949307</v>
+        <v>8.856835696554587</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.000149343090574339</v>
+        <v>0.9616630609694039</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>8.856835696554587</v>
+        <v>0.752685748270107</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9616630609694039</v>
+        <v>685</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.752685748270107</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>20.62316347857272</v>
       </c>
     </row>
@@ -7276,72 +7108,66 @@
         <v>9.596653306918633e-10</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.400223330183897</v>
+        <v>3.270974371909577e-09</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.156319219314185</v>
+        <v>2.365271238038325e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.270974371909577e-09</v>
+        <v>0.05680950694020887</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.365271238038325e-07</v>
+        <v>0.04732785348688476</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.05680950694020887</v>
+        <v>0.005466981866972797</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.04732785348688476</v>
+        <v>1.913407149765622</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.005466981866972797</v>
+        <v>4.102787242894063</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.961154783947714</v>
+        <v>9.090874807896846</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>4.102787242894063</v>
+        <v>7.785025126143637e-20</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.090874807896846</v>
+        <v>346948025351.7515</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>7.785025126143637e-20</v>
+        <v>3.467663128105243e-10</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>346948025351.7515</v>
+        <v>9371.063024278954</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.467663128105243e-10</v>
+        <v>3.400838709270878e-06</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>9371.063024278954</v>
+        <v>7.961151587339962</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.400838709270878e-06</v>
+        <v>1.758751963019885</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.961151587339962</v>
+        <v>0.0002155449349671928</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.758751963019885</v>
+        <v>8.847953600597247</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.0002155449349671928</v>
+        <v>0.9622277765317395</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>8.847953600597247</v>
+        <v>0.7383298577136228</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9622277765317395</v>
+        <v>685</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.7383298577136228</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>19.92044061848149</v>
       </c>
     </row>
@@ -7356,72 +7182,66 @@
         <v>9.776293637297591e-10</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3890320334379923</v>
+        <v>3.286392384382691e-09</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.161349462743513</v>
+        <v>2.365817765229197e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.286392384382691e-09</v>
+        <v>0.05602850326286166</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.365817765229197e-07</v>
+        <v>0.04654344587960772</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05602850326286166</v>
+        <v>0.00530523220497738</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.04654344587960772</v>
+        <v>1.917114919614781</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.00530523220497738</v>
+        <v>3.759042261941888</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.960918764815884</v>
+        <v>9.154973185002582</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.759042261941888</v>
+        <v>7.676393332164365e-20</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.154973185002582</v>
+        <v>354602372347.2065</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>7.676393332164365e-20</v>
+        <v>3.385534135022815e-10</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>354602372347.2065</v>
+        <v>9652.515175368562</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.385534135022815e-10</v>
+        <v>3.276550236161362e-06</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>9652.515175368562</v>
+        <v>7.458612309365297</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>3.276550236161362e-06</v>
+        <v>1.795009735555747</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.458612309365297</v>
+        <v>0.0001822774306082556</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.795009735555747</v>
+        <v>8.843381063037782</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0001822774306082556</v>
+        <v>0.9621881441243559</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>8.843381063037782</v>
+        <v>0.73918508054633</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9621881441243559</v>
+        <v>717</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.73918508054633</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>717</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>18.97461562048768</v>
       </c>
     </row>
@@ -7436,72 +7256,66 @@
         <v>9.961707751564682e-10</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3746754908039095</v>
+        <v>3.301880079438482e-09</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.166362267023414</v>
+        <v>2.366366762879057e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.301880079438482e-09</v>
+        <v>0.05524490464240166</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.366366762879057e-07</v>
+        <v>0.04576297513033944</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.05524490464240166</v>
+        <v>0.005145985526521666</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.04576297513033944</v>
+        <v>1.912218469121652</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005145985526521666</v>
+        <v>3.216704306472995</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.963899902267117</v>
+        <v>9.369562620770996</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.216704306472995</v>
+        <v>7.328797744264452e-20</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.369562620770996</v>
+        <v>365158574593.6008</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>7.328797744264452e-20</v>
+        <v>3.281367116333145e-10</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>365158574593.6008</v>
+        <v>9772.276413892912</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>3.281367116333145e-10</v>
+        <v>3.081203008595645e-06</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>9772.276413892912</v>
+        <v>6.498418475465241</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>3.081203008595645e-06</v>
+        <v>1.955244453239772</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.498418475465241</v>
+        <v>0.0001301174858439215</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.955244453239772</v>
+        <v>8.850755894820225</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.0001301174858439215</v>
+        <v>0.9614896705827158</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>8.850755894820225</v>
+        <v>0.6973149153489546</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9614896705827158</v>
+        <v>721</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.6973149153489546</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>721</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>18.92707333485693</v>
       </c>
     </row>
@@ -7516,72 +7330,66 @@
         <v>1.015341620011671e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3576235192682358</v>
+        <v>3.317077932534561e-09</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.17064644399665</v>
+        <v>2.366918332431902e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.317077932534561e-09</v>
+        <v>0.05445216852067146</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.366918332431902e-07</v>
+        <v>0.04500008638473577</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05445216852067146</v>
+        <v>0.004989657141628023</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.04500008638473577</v>
+        <v>1.911201274416098</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.004989657141628023</v>
+        <v>4.338817170746739</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.961468613709518</v>
+        <v>8.99729118453663</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>4.338817170746739</v>
+        <v>6.961725070023427e-20</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>8.99729118453663</v>
+        <v>371193921940.5868</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>6.961725070023427e-20</v>
+        <v>3.217627084381711e-10</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>371193921940.5868</v>
+        <v>9592.207853404463</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>3.217627084381711e-10</v>
+        <v>3.087158541361097e-06</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>9592.207853404463</v>
+        <v>6.313900369070518</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>3.087158541361097e-06</v>
+        <v>1.985893646979189</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.313900369070518</v>
+        <v>0.0001230706183113108</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.985893646979189</v>
+        <v>8.863675241199756</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0001230706183113108</v>
+        <v>0.9613006524685878</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>8.863675241199756</v>
+        <v>0.6936312439145852</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9613006524685878</v>
+        <v>720</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.6936312439145852</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>720</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>19.47649665893734</v>
       </c>
     </row>
@@ -7596,72 +7404,66 @@
         <v>1.035414782830267e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3386554484227447</v>
+        <v>3.388870263027033e-09</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.172614397751993</v>
+        <v>2.367472881446041e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.388870263027033e-09</v>
+        <v>0.05369415985867902</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.367472881446041e-07</v>
+        <v>0.04428354330516189</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05369415985867902</v>
+        <v>0.0048436852850797</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.04428354330516189</v>
+        <v>1.908869853354755</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.0048436852850797</v>
+        <v>4.336312253839647</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.958998831192284</v>
+        <v>8.981698081064231</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>4.336312253839647</v>
+        <v>6.985918519708929e-20</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>8.981698081064231</v>
+        <v>368103528918.9805</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.985918519708929e-20</v>
+        <v>3.239440381074379e-10</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>368103528918.9805</v>
+        <v>9465.93412509822</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>3.239440381074379e-10</v>
+        <v>3.316750300107079e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>9465.93412509822</v>
+        <v>7.191121763965606</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>3.316750300107079e-06</v>
+        <v>1.878998330575993</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.191121763965606</v>
+        <v>0.0001715165617487553</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.878998330575993</v>
+        <v>8.876433291723117</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.0001715165617487553</v>
+        <v>0.962354722145119</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>8.876433291723117</v>
+        <v>0.7350893024451504</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.962354722145119</v>
+        <v>715</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.7350893024451504</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>715</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>19.9528984975323</v>
       </c>
     </row>
@@ -7676,72 +7478,66 @@
         <v>1.056428916721874e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3174884680523127</v>
+        <v>3.466398751527257e-09</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.173238818438177</v>
+        <v>2.368028916651933e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>3.466398751527257e-09</v>
+        <v>0.05254977481768393</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.368028916651933e-07</v>
+        <v>0.04335953327483003</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.05254977481768393</v>
+        <v>0.00464105553259493</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.04335953327483003</v>
+        <v>1.910307712562655</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.00464105553259493</v>
+        <v>3.697572707891244</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.957961863310461</v>
+        <v>8.905897881343396</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.697572707891244</v>
+        <v>7.105342191672638e-20</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>8.905897881343396</v>
+        <v>361087438185.3456</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>7.105342191672638e-20</v>
+        <v>3.307748586204491e-10</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>361087438185.3456</v>
+        <v>9264.239169646655</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>3.307748586204491e-10</v>
+        <v>3.273844427495974e-06</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>9264.239169646655</v>
+        <v>8.220227733594317</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>3.273844427495974e-06</v>
+        <v>1.76813940272207</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.220227733594317</v>
+        <v>0.0002212206870626662</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.76813940272207</v>
+        <v>8.899540869199971</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.0002212206870626662</v>
+        <v>0.9617045798135097</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>8.899540869199971</v>
+        <v>0.7151346322377233</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9617045798135097</v>
+        <v>691</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.7151346322377233</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>691</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>19.65587749230703</v>
       </c>
     </row>
@@ -7756,72 +7552,66 @@
         <v>1.078208445745988e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2924083686803026</v>
+        <v>3.528485430202782e-09</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.176094903295118</v>
+        <v>2.368580893139296e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>3.528485430202782e-09</v>
+        <v>0.0508461368244852</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.368580893139296e-07</v>
+        <v>0.0420929207002024</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.0508461368244852</v>
+        <v>0.004356618639257689</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.0420929207002024</v>
+        <v>1.902037948291274</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.004356618639257689</v>
+        <v>3.247566307978528</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.955661968748123</v>
+        <v>11.87975395520952</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.247566307978528</v>
+        <v>7.369330577276382e-20</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>11.87975395520952</v>
+        <v>353097773461.709</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>7.369330577276382e-20</v>
+        <v>3.375432493904934e-10</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>353097773461.709</v>
+        <v>9187.936749745315</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>3.375432493904934e-10</v>
+        <v>2.7968554918917e-06</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>9187.936749745315</v>
+        <v>7.50772683177129</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>2.7968554918917e-06</v>
+        <v>1.88472419577772</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.50772683177129</v>
+        <v>0.0001576474508802873</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.88472419577772</v>
+        <v>8.936600842619125</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0001576474508802873</v>
+        <v>0.9626220000967846</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>8.936600842619125</v>
+        <v>0.7279149522659641</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9626220000967846</v>
+        <v>688</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.7279149522659641</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>688</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>18.73045890882609</v>
       </c>
     </row>
@@ -7836,72 +7626,66 @@
         <v>1.100673711264535e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.2632778240203734</v>
+        <v>3.590868544641358e-09</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.182252528075624</v>
+        <v>2.369125478914069e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>3.590868544641358e-09</v>
+        <v>0.04921718039854413</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.369125478914069e-07</v>
+        <v>0.04087085453000591</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.04921718039854413</v>
+        <v>0.00409239761387481</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.04087085453000591</v>
+        <v>1.903673505396268</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.00409239761387481</v>
+        <v>3.221052298336808</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.957415230165571</v>
+        <v>11.87120776747738</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.221052298336808</v>
+        <v>7.74951158882591e-20</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>11.87120776747738</v>
+        <v>339180286662.7348</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>7.74951158882591e-20</v>
+        <v>3.517840942588516e-10</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>339180286662.7348</v>
+        <v>8915.291297527272</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>3.517840942588516e-10</v>
+        <v>2.571456834019692e-06</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>8915.291297527272</v>
+        <v>6.116298791672605</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>2.571456834019692e-06</v>
+        <v>2.096912399055105</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>6.116298791672605</v>
+        <v>9.619591390158919e-05</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>2.096912399055105</v>
+        <v>8.95641883122544</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>9.619591390158919e-05</v>
+        <v>0.9639516317157648</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>8.95641883122544</v>
+        <v>0.7484786857020314</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9639516317157648</v>
+        <v>689</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.7484786857020314</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>689</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>18.26056561837846</v>
       </c>
     </row>
@@ -7916,72 +7700,66 @@
         <v>1.123564350299329e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.2321118507623715</v>
+        <v>3.661281036951715e-09</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.189080518795138</v>
+        <v>2.369667627028226e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3.661281036951715e-09</v>
+        <v>0.04852797301480828</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.369667627028226e-07</v>
+        <v>0.03994100386570177</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.04852797301480828</v>
+        <v>0.003950305454425423</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.03994100386570177</v>
+        <v>1.909595283288114</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.003950305454425423</v>
+        <v>3.690596760019237</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.960457574924236</v>
+        <v>11.60139527348848</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>3.690596760019237</v>
+        <v>8.114162408938091e-20</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>11.60139527348848</v>
+        <v>340878831953.1678</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>8.114162408938091e-20</v>
+        <v>3.520403957811125e-10</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>340878831953.1678</v>
+        <v>9428.525113456473</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.520403957811125e-10</v>
+        <v>2.593651313464711e-06</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>9428.525113456473</v>
+        <v>6.123733605295621</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>2.593651313464711e-06</v>
+        <v>2.074888381755126</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>6.123733605295621</v>
+        <v>9.726221803424964e-05</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>2.074888381755126</v>
+        <v>8.964709084939566</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>9.726221803424964e-05</v>
+        <v>0.9631737920506159</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>8.964709084939566</v>
+        <v>0.7377891890789116</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9631737920506159</v>
+        <v>693</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.7377891890789116</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>693</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>18.51650592991208</v>
       </c>
     </row>
@@ -7996,72 +7774,66 @@
         <v>1.145261017281495e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2008794484502892</v>
+        <v>3.727780953213545e-09</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.193117170357124</v>
+        <v>2.370223049698041e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>3.727780953213545e-09</v>
+        <v>0.04961722152320934</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.370223049698041e-07</v>
+        <v>0.03634181822138773</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.04961722152320934</v>
+        <v>0.003782110653579704</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.03634181822138773</v>
+        <v>1.904033053310988</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.003782110653579704</v>
+        <v>3.506284130344149</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.950943639012979</v>
+        <v>11.46370774735166</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>3.506284130344149</v>
+        <v>8.310247006076414e-20</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>11.46370774735166</v>
+        <v>336072186654.9542</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>8.310247006076414e-20</v>
+        <v>3.565868797617796e-10</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>336072186654.9542</v>
+        <v>9385.968146650963</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>3.565868797617796e-10</v>
+        <v>2.758536985533254e-06</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>9385.968146650963</v>
+        <v>6.985803231212566</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>2.758536985533254e-06</v>
+        <v>1.885769230863441</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>6.985803231212566</v>
+        <v>0.0001346205959045621</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.885769230863441</v>
+        <v>8.9669826168203</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.0001346205959045621</v>
+        <v>0.9615441459205964</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>8.9669826168203</v>
+        <v>0.741763831835725</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9615441459205964</v>
+        <v>685</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.741763831835725</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>685</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>19.00198356596394</v>
       </c>
     </row>
@@ -8076,72 +7848,66 @@
         <v>1.164031162009787e-09</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.1718102823388105</v>
+        <v>3.795565403949298e-09</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.192472416452045</v>
+        <v>2.370805726742185e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>3.795565403949298e-09</v>
+        <v>0.05119757743015903</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.370805726742185e-07</v>
+        <v>0.03124606628432616</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.05119757743015903</v>
+        <v>0.003597351246413846</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.03124606628432616</v>
+        <v>1.903576652247619</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.003597351246413846</v>
+        <v>3.428664430263197</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.948805481281536</v>
+        <v>11.45284995983551</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>3.428664430263197</v>
+        <v>8.326011408451992e-20</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>11.45284995983551</v>
+        <v>333982589158.6716</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>8.326011408451992e-20</v>
+        <v>3.586000246085838e-10</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>333982589158.6716</v>
+        <v>9287.196960123572</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>3.586000246085838e-10</v>
+        <v>2.589199252816794e-06</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>9287.196960123572</v>
+        <v>7.860486334272029</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>2.589199252816794e-06</v>
+        <v>1.769647173444228</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>7.860486334272029</v>
+        <v>0.0001599794896524871</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.769647173444228</v>
+        <v>9.002644162504916</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.0001599794896524871</v>
+        <v>0.9611751481488949</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>9.002644162504916</v>
+        <v>0.7433292912120069</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9611751481488949</v>
+        <v>677</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.7433292912120069</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>677</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>19.51991088054688</v>
       </c>
     </row>
@@ -8156,72 +7922,66 @@
         <v>1.179723386483961e-09</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.1457882618261742</v>
+        <v>3.858326360526338e-09</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.189097197596077</v>
+        <v>2.371413505779505e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>3.858326360526338e-09</v>
+        <v>0.05254010799157129</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.371413505779505e-07</v>
+        <v>0.02666551854748472</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.05254010799157129</v>
+        <v>0.003471367090390695</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.02666551854748472</v>
+        <v>1.91546104537695</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.003471367090390695</v>
+        <v>3.633274275121627</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.952934186858371</v>
+        <v>11.33774438269204</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>3.633274275121627</v>
+        <v>8.495927964436524e-20</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>11.33774438269204</v>
+        <v>335047572728.5389</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>8.495927964436524e-20</v>
+        <v>3.586233743921546e-10</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>335047572728.5389</v>
+        <v>9537.263319346464</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>3.586233743921546e-10</v>
+        <v>2.170869317662637e-06</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>9537.263319346464</v>
+        <v>7.732283947430865</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>2.170869317662637e-06</v>
+        <v>1.815148670623365</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>7.732283947430865</v>
+        <v>0.0001297924015961776</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.815148670623365</v>
+        <v>9.039710250007534</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.0001297924015961776</v>
+        <v>0.9617432523703389</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>9.039710250007534</v>
+        <v>0.7343422626400038</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9617432523703389</v>
+        <v>683</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.7343422626400038</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>683</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>19.83121177058216</v>
       </c>
     </row>
@@ -8236,72 +7996,66 @@
         <v>1.192022936834095e-09</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.1237871765638281</v>
+        <v>3.918747727993801e-09</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.185601602815887</v>
+        <v>2.372044909764792e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3.918747727993801e-09</v>
+        <v>0.05390780388740778</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.372044909764792e-07</v>
+        <v>0.02165107767540539</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.05390780388740778</v>
+        <v>0.003374798637598232</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.02165107767540539</v>
+        <v>1.911382981374406</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.003374798637598232</v>
+        <v>3.497864893913622</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.951215885170669</v>
+        <v>11.92195309153137</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>3.497864893913622</v>
+        <v>7.68368100819764e-20</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>11.92195309153137</v>
+        <v>360316103657.097</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7.68368100819764e-20</v>
+        <v>3.327127850401143e-10</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>360316103657.097</v>
+        <v>9975.545909875093</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>3.327127850401143e-10</v>
+        <v>1.988042353728776e-06</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>9975.545909875093</v>
+        <v>6.631137755603473</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>1.988042353728776e-06</v>
+        <v>2.028562606256159</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>6.631137755603473</v>
+        <v>8.741817439002493e-05</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>2.028562606256159</v>
+        <v>9.02783981562888</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>8.741817439002493e-05</v>
+        <v>0.9620543124261995</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>9.02783981562888</v>
+        <v>0.7081954012613376</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9620543124261995</v>
+        <v>689</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.7081954012613376</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>689</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>20.0506255829964</v>
       </c>
     </row>
@@ -8316,72 +8070,66 @@
         <v>1.200908871590731e-09</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.10641339735329</v>
+        <v>3.97208116935723e-09</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.18467074995947</v>
+        <v>2.372696892515493e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>3.97208116935723e-09</v>
+        <v>0.05492633031234838</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.372696892515493e-07</v>
+        <v>0.01765188049579868</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.05492633031234838</v>
+        <v>0.003328747883031144</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.01765188049579868</v>
+        <v>1.913422279541685</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.003328747883031144</v>
+        <v>3.583063294107999</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.95639226930826</v>
+        <v>11.99656851934899</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>3.583063294107999</v>
+        <v>7.588397395538126e-20</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>11.99656851934899</v>
+        <v>362324758078.1567</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7.588397395538126e-20</v>
+        <v>3.305038216379461e-10</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>362324758078.1567</v>
+        <v>9961.989694211803</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>3.305038216379461e-10</v>
+        <v>2.021352657612392e-06</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>9961.989694211803</v>
+        <v>5.734023617753526</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>2.021352657612392e-06</v>
+        <v>2.201063988752644</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>5.734023617753526</v>
+        <v>6.646010830084487e-05</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>2.201063988752644</v>
+        <v>9.018337023841074</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>6.646010830084487e-05</v>
+        <v>0.961624345031086</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>9.018337023841074</v>
+        <v>0.6823468497820603</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.961624345031086</v>
+        <v>694</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.6823468497820603</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>694</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>20.26596234640372</v>
       </c>
     </row>
@@ -8396,72 +8144,66 @@
         <v>1.206769605284549e-09</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.09224301994960571</v>
+        <v>4.015187062827706e-09</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.188298078767595</v>
+        <v>2.373361923436766e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4.015187062827706e-09</v>
+        <v>0.05544874359798116</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.373361923436766e-07</v>
+        <v>0.01549309497138579</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.05544874359798116</v>
+        <v>0.003314932596262804</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.01549309497138579</v>
+        <v>1.91455823342514</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.003314932596262804</v>
+        <v>3.544350819993779</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.952268067945082</v>
+        <v>12.00656696058521</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>3.544350819993779</v>
+        <v>7.575764216627392e-20</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>12.00656696058521</v>
+        <v>361718981450.7478</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>7.575764216627392e-20</v>
+        <v>3.314405501759838e-10</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>361718981450.7478</v>
+        <v>9912.176987574012</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>3.314405501759838e-10</v>
+        <v>2.21229057158649e-06</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>9912.176987574012</v>
+        <v>6.176426489685599</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>2.21229057158649e-06</v>
+        <v>2.202693423489349</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>6.176426489685599</v>
+        <v>8.439500092750174e-05</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>2.202693423489349</v>
+        <v>9.008350736312991</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>8.439500092750174e-05</v>
+        <v>0.9620952203323415</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>9.008350736312991</v>
+        <v>0.7101283834860341</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9620952203323415</v>
+        <v>682</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.7101283834860341</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>682</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>20.49060425304302</v>
       </c>
     </row>
@@ -8476,72 +8218,66 @@
         <v>1.210062775864482e-09</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.0794552789984921</v>
+        <v>4.030408739347943e-09</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.196796363194956</v>
+        <v>2.374032956365311e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>4.030408739347943e-09</v>
+        <v>0.05550799332999511</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.374032956365311e-07</v>
+        <v>0.01494890424663654</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.05550799332999511</v>
+        <v>0.003304945099487277</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.01494890424663654</v>
+        <v>1.914509808724839</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.003304945099487277</v>
+        <v>3.592913890028914</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.953737182287203</v>
+        <v>11.8223579607114</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>3.592913890028914</v>
+        <v>7.813685631173677e-20</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>11.8223579607114</v>
+        <v>353375904254.4931</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>7.813685631173677e-20</v>
+        <v>3.390690421186995e-10</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>353375904254.4931</v>
+        <v>9757.303184764751</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>3.390690421186995e-10</v>
+        <v>2.377937678223254e-06</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>9757.303184764751</v>
+        <v>7.051273484427367</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>2.377937678223254e-06</v>
+        <v>1.96895620430681</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.051273484427367</v>
+        <v>0.0001182321498674364</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.96895620430681</v>
+        <v>9.00463018730721</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.0001182321498674364</v>
+        <v>0.9623151001822731</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>9.00463018730721</v>
+        <v>0.6959724690092024</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9623151001822731</v>
+        <v>688</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.6959724690092024</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>688</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>20.61800198811566</v>
       </c>
     </row>
@@ -8918,7 +8654,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.246639403864517</v>
+        <v>1.25733370155297</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.00501872143423</v>
@@ -9007,7 +8743,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.251311810519314</v>
+        <v>1.261338565675608</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.894961818314066</v>
@@ -9096,7 +8832,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.265316224761557</v>
+        <v>1.277497436420233</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.915861875484677</v>
@@ -9185,7 +8921,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.286786734983222</v>
+        <v>1.30035286197645</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.909117100057121</v>
@@ -9274,7 +9010,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.351040014005813</v>
+        <v>1.362751315982432</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.933610826580806</v>
@@ -9363,7 +9099,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.399870394283293</v>
+        <v>1.415527374480823</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.750955437346553</v>
@@ -9452,7 +9188,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.412828664923578</v>
+        <v>1.432809295312458</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.047298187688751</v>
@@ -9541,7 +9277,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.427702401815574</v>
+        <v>1.44656531522025</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.239839284213828</v>
@@ -9630,7 +9366,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.418217657249842</v>
+        <v>1.433512745435382</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.174561421453509</v>
@@ -9719,7 +9455,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.437909592859357</v>
+        <v>1.447917528551774</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.025518383843754</v>
@@ -9808,7 +9544,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.488198305581587</v>
+        <v>1.5017693680228</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.181473666314544</v>
@@ -9897,7 +9633,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.490518241186196</v>
+        <v>1.500384370503969</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.360037988791742</v>
@@ -9986,7 +9722,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.485772114837681</v>
+        <v>1.492276675592664</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.616505179843096</v>
@@ -10075,7 +9811,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.488487104502189</v>
+        <v>1.498122993829919</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.616336888590222</v>
@@ -10164,7 +9900,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.479226613772178</v>
+        <v>1.48873078083738</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.673035855591041</v>
@@ -10253,7 +9989,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.427481709395115</v>
+        <v>1.435454437637583</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.168269594719635</v>
@@ -10342,7 +10078,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.376230266544367</v>
+        <v>1.389559755745027</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.904915188259369</v>
@@ -10431,7 +10167,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.370808493859901</v>
+        <v>1.388337842153679</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.923635888208051</v>
@@ -10520,7 +10256,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.354280611220464</v>
+        <v>1.368034771376086</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.927312093050028</v>
@@ -10609,7 +10345,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.351290067359236</v>
+        <v>1.365646101078511</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.929641989954859</v>
@@ -10698,7 +10434,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.362670294931932</v>
+        <v>1.37243109967466</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.959654941920282</v>
@@ -10787,7 +10523,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.374210379392521</v>
+        <v>1.381506772651472</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.946643838720092</v>
@@ -10876,7 +10612,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.343828521511891</v>
+        <v>1.353761543956654</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.989793025631277</v>
@@ -10965,7 +10701,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.337031427466524</v>
+        <v>1.348407391029184</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.950436073150884</v>
@@ -11054,7 +10790,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.313456048501591</v>
+        <v>1.318080609773894</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.998464733907939</v>
@@ -11143,7 +10879,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.308516949101326</v>
+        <v>1.313931217213466</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.005048185988427</v>
@@ -11232,7 +10968,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.311735680522782</v>
+        <v>1.317034864904686</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.007646038973043</v>
@@ -11321,7 +11057,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.319240402218287</v>
+        <v>1.324492421522729</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.974080734261306</v>
@@ -11410,7 +11146,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.318722334324188</v>
+        <v>1.324221189472813</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.015107566710328</v>
@@ -11499,7 +11235,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.315610341428572</v>
+        <v>1.317340592667412</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.94900403453946</v>
@@ -11588,7 +11324,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.350328582680458</v>
+        <v>1.354630330674059</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.97865755122725</v>
@@ -11677,7 +11413,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.40536081452804</v>
+        <v>1.404120660952916</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.189282797676321</v>
@@ -11766,7 +11502,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.416819755254394</v>
+        <v>1.412001490998982</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.170187731427188</v>
@@ -11855,7 +11591,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.416666181815213</v>
+        <v>1.411517144569667</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.203312592176963</v>
@@ -11944,7 +11680,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.415868479227368</v>
+        <v>1.411124553309264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.096654893128034</v>
@@ -12033,7 +11769,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.405537830483619</v>
+        <v>1.398819639253998</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.16733012136176</v>
@@ -12122,7 +11858,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.396068774654536</v>
+        <v>1.393071685055157</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.18696302210332</v>
@@ -12211,7 +11947,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.422909610150392</v>
+        <v>1.415945535142608</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.033753101646491</v>
@@ -12300,7 +12036,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.425919010727362</v>
+        <v>1.418408642640228</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.098021224928833</v>
@@ -12389,7 +12125,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486964865184899</v>
+        <v>1.479244974544445</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.036360078460457</v>
@@ -12478,7 +12214,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.490260837853134</v>
+        <v>1.485709880080801</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.455906261414081</v>
@@ -12567,7 +12303,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.488995877575818</v>
+        <v>1.487807837870763</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.368914332653491</v>
@@ -12656,7 +12392,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.491774903457242</v>
+        <v>1.493753138228446</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.371644562721959</v>
@@ -12745,7 +12481,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.473309326528682</v>
+        <v>1.476839123274859</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.401243861993635</v>
@@ -12834,7 +12570,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.488093705357134</v>
+        <v>1.494609087790163</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.265222257535477</v>
@@ -12923,7 +12659,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.472393573817342</v>
+        <v>1.474479403881368</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.430003762144722</v>
@@ -13012,7 +12748,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.469535690396682</v>
+        <v>1.473999353105781</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.415624221179466</v>
@@ -13101,7 +12837,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.467087124058146</v>
+        <v>1.478025382326944</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.270549097747739</v>
@@ -13190,7 +12926,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.48306264876426</v>
+        <v>1.4903254969866</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.313129824219305</v>
@@ -13279,7 +13015,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.451493958180942</v>
+        <v>1.466480286120082</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.337982102236773</v>
@@ -13368,7 +13104,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.465660487209842</v>
+        <v>1.483286295387508</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.383636544567667</v>
@@ -13457,7 +13193,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.4817328633294</v>
+        <v>1.498206332206829</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.516099004083211</v>
@@ -13546,7 +13282,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.466476013727973</v>
+        <v>1.487490375037661</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.467007095347233</v>
@@ -13635,7 +13371,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.473285245140113</v>
+        <v>1.495431675181775</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.388509696103137</v>
@@ -13724,7 +13460,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.477439069946819</v>
+        <v>1.502958809757705</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.480251718170327</v>
@@ -13813,7 +13549,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.477112445016539</v>
+        <v>1.503298753369529</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.458377546263411</v>
@@ -13902,7 +13638,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.477573942373092</v>
+        <v>1.502868852957849</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.503589320106601</v>
@@ -13991,7 +13727,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.470538594627127</v>
+        <v>1.494268686793069</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.456992397711248</v>
@@ -14080,7 +13816,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.437653851380536</v>
+        <v>1.45875632309156</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.380719977640608</v>
@@ -14169,7 +13905,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.434041809245783</v>
+        <v>1.458231757206175</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.27581077317348</v>
@@ -14258,7 +13994,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.454772351387522</v>
+        <v>1.48188059955217</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.223063083564262</v>
@@ -14347,7 +14083,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.442512823050273</v>
+        <v>1.469066885979718</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.218191470518723</v>
@@ -14436,7 +14172,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.442163653983026</v>
+        <v>1.466950887652821</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.293053792687754</v>
@@ -14525,7 +14261,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.47022820508279</v>
+        <v>1.49410223618469</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.056529769845403</v>
@@ -14614,7 +14350,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.460706717157759</v>
+        <v>1.481705285216666</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.276737675238823</v>
@@ -14703,7 +14439,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.470326011785697</v>
+        <v>1.491635684547203</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.314549403617346</v>
@@ -14792,7 +14528,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.478781627279819</v>
+        <v>1.498234182355278</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.11482182585525</v>
@@ -14881,7 +14617,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.500602435175991</v>
+        <v>1.516902865714357</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.202931530603266</v>
@@ -14970,7 +14706,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.521478861730029</v>
+        <v>1.53602786255929</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.252260399895187</v>
@@ -15059,7 +14795,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.52299908327702</v>
+        <v>1.534564522683871</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.359388918473999</v>
@@ -15148,7 +14884,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.505205934881521</v>
+        <v>1.51101908113783</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.256837121182645</v>
@@ -15237,7 +14973,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.501255278388363</v>
+        <v>1.505160232183767</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.204389470775054</v>
@@ -15326,7 +15062,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.513306729810646</v>
+        <v>1.514422738093876</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.299230801339095</v>
@@ -15415,7 +15151,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.593042000623632</v>
+        <v>1.586359970835045</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.291896410691545</v>
@@ -15504,7 +15240,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.594270581320223</v>
+        <v>1.591217210845023</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.584431514111801</v>
@@ -15593,7 +15329,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.60304136488351</v>
+        <v>1.594245473637343</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.271924434383363</v>
@@ -15682,7 +15418,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.618869181483667</v>
+        <v>1.598064345131517</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.567798690837604</v>
@@ -15771,7 +15507,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.617642450016777</v>
+        <v>1.597947828997974</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.540069440463131</v>
@@ -15860,7 +15596,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.624993433586271</v>
+        <v>1.598934298139409</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.712574714655182</v>
@@ -15949,7 +15685,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.59183718682025</v>
+        <v>1.573376841868234</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.880444562478697</v>
@@ -16038,7 +15774,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.580289206952281</v>
+        <v>1.561273741359096</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.826182696878713</v>
@@ -16127,7 +15863,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.584192159102662</v>
+        <v>1.560974838602408</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.803950038181504</v>
@@ -16216,7 +15952,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.578171463349104</v>
+        <v>1.5575326737809</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.569244960021196</v>
@@ -16305,7 +16041,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.577445894951671</v>
+        <v>1.555252082848631</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.778344991133199</v>
@@ -16394,7 +16130,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.553039580376267</v>
+        <v>1.538597976449936</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.786806112384391</v>
@@ -16483,7 +16219,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.573265527800319</v>
+        <v>1.559547217303284</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.629203446945695</v>
@@ -16572,7 +16308,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.577480938206262</v>
+        <v>1.564170710192733</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.675173481142012</v>
@@ -16858,7 +16594,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.428107814573943</v>
+        <v>1.41883799415121</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.43182976953733</v>
@@ -16947,7 +16683,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430444142791506</v>
+        <v>1.41821511119718</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.323081949575971</v>
@@ -17036,7 +16772,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.441757212996127</v>
+        <v>1.430268303237506</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.364140033985042</v>
@@ -17125,7 +16861,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.455379353760064</v>
+        <v>1.440093501854329</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.421676550258905</v>
@@ -17214,7 +16950,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.467935763684549</v>
+        <v>1.453681252827202</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.50547367144074</v>
@@ -17303,7 +17039,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.47055312668386</v>
+        <v>1.45505422070275</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.278524634442645</v>
@@ -17392,7 +17128,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.479065022073558</v>
+        <v>1.464592131510324</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.645635232552546</v>
@@ -17481,7 +17217,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.48722565809684</v>
+        <v>1.473909230945281</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.536090493634318</v>
@@ -17570,7 +17306,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.49300233087787</v>
+        <v>1.473665547058794</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.426944790247257</v>
@@ -17659,7 +17395,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.489029795580396</v>
+        <v>1.470838530469857</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.441883223403961</v>
@@ -17748,7 +17484,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.501040945884866</v>
+        <v>1.48096975228935</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.602970802112873</v>
@@ -17837,7 +17573,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.503041518792368</v>
+        <v>1.481520230990506</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.655787564009346</v>
@@ -17926,7 +17662,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.505171252190546</v>
+        <v>1.482930894977994</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.584348817400492</v>
@@ -18015,7 +17751,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510133310976949</v>
+        <v>1.490617417384024</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.43797730329269</v>
@@ -18104,7 +17840,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.508124891872561</v>
+        <v>1.483413400833637</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.686260135420602</v>
@@ -18193,7 +17929,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.495949255760946</v>
+        <v>1.465476150190097</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.540044589862209</v>
@@ -18282,7 +18018,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.463291446766966</v>
+        <v>1.441437995285942</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.125028318691116</v>
@@ -18371,7 +18107,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.442564711964176</v>
+        <v>1.428385699241953</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.070573990218521</v>
@@ -18460,7 +18196,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.454691024436043</v>
+        <v>1.436690451461967</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.986574154489416</v>
@@ -18549,7 +18285,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.465502139825131</v>
+        <v>1.451754067548673</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.09585515560485</v>
@@ -18638,7 +18374,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.456430681040329</v>
+        <v>1.445513158167231</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.149990517727773</v>
@@ -18727,7 +18463,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.444641393236461</v>
+        <v>1.435495908775231</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.169354096562393</v>
@@ -18816,7 +18552,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.441945212986327</v>
+        <v>1.431101802156593</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.220917543507556</v>
@@ -18905,7 +18641,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.432961812358168</v>
+        <v>1.426684929172791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.169618848493449</v>
@@ -18994,7 +18730,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.42703099555355</v>
+        <v>1.425907643329207</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.221186212637029</v>
@@ -19083,7 +18819,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.43079952989991</v>
+        <v>1.42767992855033</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.158984100458632</v>
@@ -19172,7 +18908,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.426155366199716</v>
+        <v>1.421403718213459</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.074608525163561</v>
@@ -19261,7 +18997,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.432279854720507</v>
+        <v>1.429948773394882</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.150656962128646</v>
@@ -19350,7 +19086,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.425302909641382</v>
+        <v>1.425870004485054</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.092158214180257</v>
@@ -19439,7 +19175,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.427408981687422</v>
+        <v>1.427311093024003</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.201303193782886</v>
@@ -19528,7 +19264,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.423231708014575</v>
+        <v>1.430681840743076</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.137390553658557</v>
@@ -19617,7 +19353,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.462805852308081</v>
+        <v>1.466279708553438</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.101517996724042</v>
@@ -19706,7 +19442,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.468006136189285</v>
+        <v>1.467949905917208</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.224556139608253</v>
@@ -19795,7 +19531,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.461515501817297</v>
+        <v>1.464431937587755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.243441069215382</v>
@@ -19884,7 +19620,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.453184075010397</v>
+        <v>1.445874649621407</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.340941216722902</v>
@@ -19973,7 +19709,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473130460013046</v>
+        <v>1.457962057730864</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.482260193041599</v>
@@ -20062,7 +19798,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.474670193146848</v>
+        <v>1.462384569496942</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.859113900280562</v>
@@ -20151,7 +19887,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.473739286255356</v>
+        <v>1.461182511519301</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.700005002011989</v>
@@ -20240,7 +19976,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.473080309992089</v>
+        <v>1.459852928421943</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.547701784295965</v>
@@ -20329,7 +20065,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.481663256539632</v>
+        <v>1.465418892741109</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.834943898935845</v>
@@ -20418,7 +20154,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.475133003925336</v>
+        <v>1.465326180767001</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.576426537961979</v>
@@ -20507,7 +20243,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.478899419527404</v>
+        <v>1.474875164288954</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.051678905494879</v>
@@ -20596,7 +20332,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.478646604679005</v>
+        <v>1.47003435108954</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.909974180757639</v>
@@ -20685,7 +20421,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.480993839235835</v>
+        <v>1.467763857620135</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.670674575113054</v>
@@ -20774,7 +20510,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.475898950713963</v>
+        <v>1.460846013222219</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.650020480628349</v>
@@ -20863,7 +20599,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.477243260140281</v>
+        <v>1.462255299872922</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.014717767205457</v>
@@ -20952,7 +20688,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482407604004651</v>
+        <v>1.463219974898238</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.532250041587093</v>
@@ -21041,7 +20777,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.498527266684301</v>
+        <v>1.48067433128567</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.912277820083954</v>
@@ -21130,7 +20866,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.501728974082372</v>
+        <v>1.485001690640685</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.972989486261256</v>
@@ -21219,7 +20955,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.506946984208733</v>
+        <v>1.497220827436437</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.946137745404096</v>
@@ -21308,7 +21044,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.511588717466007</v>
+        <v>1.508296415246036</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.801573104444238</v>
@@ -21397,7 +21133,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.490346091963157</v>
+        <v>1.488515654984501</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.965800775772583</v>
@@ -21486,7 +21222,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.49027671998478</v>
+        <v>1.492106528529752</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.856683280317322</v>
@@ -21575,7 +21311,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.500994441366643</v>
+        <v>1.498325213151792</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.691760578759687</v>
@@ -21664,7 +21400,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.503675490217527</v>
+        <v>1.500711426006341</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.905673196502764</v>
@@ -21753,7 +21489,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.506188817613355</v>
+        <v>1.501759141461129</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.971512471912653</v>
@@ -21842,7 +21578,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.514499290017585</v>
+        <v>1.506333589308765</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.955357709842211</v>
@@ -21931,7 +21667,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.509703567849666</v>
+        <v>1.497517663020572</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.631589219512969</v>
@@ -22020,7 +21756,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.51293191659478</v>
+        <v>1.511685794685897</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.98231846005741</v>
@@ -22109,7 +21845,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.510715711855524</v>
+        <v>1.507903141142785</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.91305031240906</v>
@@ -22198,7 +21934,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.511576102980976</v>
+        <v>1.498701904197665</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.780504866433245</v>
@@ -22287,7 +22023,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.503665349087389</v>
+        <v>1.493669176182827</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.807869138660717</v>
@@ -22376,7 +22112,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.490586412655762</v>
+        <v>1.482483630660309</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.77260049842708</v>
@@ -22465,7 +22201,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.483685209335861</v>
+        <v>1.476125553743669</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.421755836394535</v>
@@ -22554,7 +22290,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.432968743278247</v>
+        <v>1.429322779091616</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.492069677114648</v>
@@ -22643,7 +22379,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.429544459313856</v>
+        <v>1.421605848889004</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.369134914332884</v>
@@ -22732,7 +22468,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.448248133474977</v>
+        <v>1.43466088673541</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.24390664869842</v>
@@ -22821,7 +22557,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.447099741832291</v>
+        <v>1.432673042895244</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.437978025259792</v>
@@ -22910,7 +22646,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.43659041387313</v>
+        <v>1.424258776239568</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.222515842198099</v>
@@ -22999,7 +22735,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.387745921016235</v>
+        <v>1.380989149011765</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.967858859963388</v>
@@ -23088,7 +22824,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.392051075307306</v>
+        <v>1.384054537566076</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.934341744209094</v>
@@ -23177,7 +22913,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.387463183386894</v>
+        <v>1.37957615870502</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.937767541137084</v>
@@ -23266,7 +23002,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.396137706830198</v>
+        <v>1.38743130794914</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.901031069749042</v>
@@ -23355,7 +23091,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.398727927988515</v>
+        <v>1.389794659137288</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.012554404525563</v>
@@ -23444,7 +23180,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.397317295259046</v>
+        <v>1.390596146332998</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.948764090721046</v>
@@ -23533,7 +23269,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.396513662018174</v>
+        <v>1.393020386931494</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.013082131152907</v>
@@ -23622,7 +23358,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.401767669150092</v>
+        <v>1.394219779040249</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.954068817645901</v>
@@ -23711,7 +23447,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.390133435107012</v>
+        <v>1.383138307247959</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.921458311541504</v>
@@ -23800,7 +23536,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.414604171149342</v>
+        <v>1.405669880351721</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.920471525079869</v>
@@ -23889,7 +23625,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.432906695357238</v>
+        <v>1.419823161214586</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.924280708886809</v>
@@ -23978,7 +23714,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.424731261773313</v>
+        <v>1.410086297000203</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.990434410238091</v>
@@ -24067,7 +23803,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.426843948652698</v>
+        <v>1.410563691511572</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.953471399164276</v>
@@ -24156,7 +23892,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.415628637981751</v>
+        <v>1.402240507041951</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.937278888423275</v>
@@ -24245,7 +23981,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.437800126417478</v>
+        <v>1.415395646766211</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.801747485556602</v>
@@ -24334,7 +24070,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.480054904534463</v>
+        <v>1.453912615308815</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.389743400165615</v>
@@ -24423,7 +24159,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.467632691934416</v>
+        <v>1.444968730880652</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.913689632292451</v>
@@ -24512,7 +24248,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.462570669709051</v>
+        <v>1.433670367533799</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.777017731014616</v>
@@ -24798,7 +24534,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.424443501730373</v>
+        <v>1.44555599668794</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.569592329542429</v>
@@ -24887,7 +24623,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.423174416994647</v>
+        <v>1.440145733680372</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.489713523956283</v>
@@ -24976,7 +24712,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.428237709550769</v>
+        <v>1.444754015203921</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.475355833325871</v>
@@ -25065,7 +24801,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.428326804786826</v>
+        <v>1.44326098884395</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.350672596138769</v>
@@ -25154,7 +24890,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.442306592102491</v>
+        <v>1.454887859203496</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.136503003655184</v>
@@ -25243,7 +24979,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.463247769112217</v>
+        <v>1.472415743699754</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.491188124210128</v>
@@ -25332,7 +25068,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462602564167045</v>
+        <v>1.469792958806704</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.402273725630532</v>
@@ -25421,7 +25157,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.469651478625373</v>
+        <v>1.47401794434267</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.570760076032663</v>
@@ -25510,7 +25246,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.485098377367732</v>
+        <v>1.485316471126409</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.504231868772803</v>
@@ -25599,7 +25335,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.492636989734048</v>
+        <v>1.490133635946015</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.486692162508419</v>
@@ -25688,7 +25424,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.502629231332828</v>
+        <v>1.505357542520188</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.765551126012336</v>
@@ -25777,7 +25513,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.511771827713986</v>
+        <v>1.514248813677683</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.166463675634814</v>
@@ -25866,7 +25602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518980430836425</v>
+        <v>1.51224692783807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.716831824052531</v>
@@ -25955,7 +25691,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.529472765563455</v>
+        <v>1.518728944324485</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.065599688893503</v>
@@ -26044,7 +25780,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524022900218615</v>
+        <v>1.509572242645658</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.86741460651998</v>
@@ -26133,7 +25869,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.524730426466685</v>
+        <v>1.508052340663134</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.032640160647751</v>
@@ -26222,7 +25958,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.516434030726736</v>
+        <v>1.508915148852346</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.39902647309204</v>
@@ -26311,7 +26047,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509907859061106</v>
+        <v>1.503208850561043</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.287770998286044</v>
@@ -26400,7 +26136,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.497326188429163</v>
+        <v>1.490535112866436</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.253331942963694</v>
@@ -26489,7 +26225,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.494348895877639</v>
+        <v>1.48922089623447</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.300187756359266</v>
@@ -26578,7 +26314,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.498002874975598</v>
+        <v>1.497436428998217</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.254882178261537</v>
@@ -26667,7 +26403,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.497091050247126</v>
+        <v>1.50092678603212</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.396393893163745</v>
@@ -26756,7 +26492,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.487177868293972</v>
+        <v>1.495013375652857</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.344870887020119</v>
@@ -26845,7 +26581,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.475171511225613</v>
+        <v>1.481835128814053</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.443850502747373</v>
@@ -26934,7 +26670,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.472865057649078</v>
+        <v>1.482561858558472</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.362459887872829</v>
@@ -27023,7 +26759,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.471588158552074</v>
+        <v>1.476093580070934</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.332726956271074</v>
@@ -27112,7 +26848,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.453526440139657</v>
+        <v>1.462014675688714</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.234686875864198</v>
@@ -27201,7 +26937,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.44269886401075</v>
+        <v>1.451950733373487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.254410820910241</v>
@@ -27290,7 +27026,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.435686604071001</v>
+        <v>1.443432008157052</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.290758682452177</v>
@@ -27379,7 +27115,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.438150546724765</v>
+        <v>1.44789733301791</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.220774170759582</v>
@@ -27468,7 +27204,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.422336166522323</v>
+        <v>1.436681880932119</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.311343911227707</v>
@@ -27557,7 +27293,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.419130209756185</v>
+        <v>1.429331766862165</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.336300162238991</v>
@@ -27646,7 +27382,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.415868725650705</v>
+        <v>1.427105974562781</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.443300059622726</v>
@@ -27735,7 +27471,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.427739244011067</v>
+        <v>1.439599886147084</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.385706014709134</v>
@@ -27824,7 +27560,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.42155899048145</v>
+        <v>1.430129894552959</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.53258511249576</v>
@@ -27913,7 +27649,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.407689505569463</v>
+        <v>1.412302840067182</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.341983842599252</v>
@@ -28002,7 +27738,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.402965351559977</v>
+        <v>1.40788233493248</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.400071382604074</v>
@@ -28091,7 +27827,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.40438559777227</v>
+        <v>1.406299100894167</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.324342591477266</v>
@@ -28180,7 +27916,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.410255545695577</v>
+        <v>1.410136884103209</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.277187151614283</v>
@@ -28269,7 +28005,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.414041733073308</v>
+        <v>1.41609602701372</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.437637550715309</v>
@@ -28358,7 +28094,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.416583468767477</v>
+        <v>1.419703994942448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.294790200836419</v>
@@ -28447,7 +28183,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.425992304838938</v>
+        <v>1.431851779501564</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.489053587558583</v>
@@ -28536,7 +28272,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.420894329730233</v>
+        <v>1.427206978682468</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.974988547541015</v>
@@ -28625,7 +28361,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.401464619185651</v>
+        <v>1.407269509638715</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.308515421567369</v>
@@ -28714,7 +28450,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.404471779199754</v>
+        <v>1.410035454640159</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.371884864459099</v>
@@ -28803,7 +28539,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.406226757780813</v>
+        <v>1.413093320868291</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.347971577700674</v>
@@ -28892,7 +28628,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.419028518596787</v>
+        <v>1.423596965901122</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.355616072254187</v>
@@ -28981,7 +28717,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.415249157530314</v>
+        <v>1.421775888414342</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.422796489799874</v>
@@ -29070,7 +28806,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.415530233466977</v>
+        <v>1.413408531961355</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.433800199419526</v>
@@ -29159,7 +28895,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.400135171602506</v>
+        <v>1.398011472316064</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.485165320798713</v>
@@ -29248,7 +28984,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.396926407597758</v>
+        <v>1.401478819905078</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.474871795723982</v>
@@ -29337,7 +29073,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.40378225846697</v>
+        <v>1.406001947466705</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.487354167320525</v>
@@ -29426,7 +29162,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.399285480730703</v>
+        <v>1.405973325609505</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.447733292982225</v>
@@ -29515,7 +29251,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.40742351362859</v>
+        <v>1.414464271958148</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.519986467026518</v>
@@ -29604,7 +29340,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.40247365436781</v>
+        <v>1.406249912156983</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.447396891033632</v>
@@ -29693,7 +29429,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.405893836511632</v>
+        <v>1.411444678823377</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.463340740307583</v>
@@ -29782,7 +29518,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.406923887927602</v>
+        <v>1.411401105439651</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.484252275590142</v>
@@ -29871,7 +29607,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.415978889810676</v>
+        <v>1.419702543147357</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.234339511894784</v>
@@ -29960,7 +29696,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.43530494102923</v>
+        <v>1.44156002513885</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.504622707772386</v>
@@ -30049,7 +29785,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.440185558238527</v>
+        <v>1.445288699789491</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.222703889318535</v>
@@ -30138,7 +29874,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.432713531285146</v>
+        <v>1.43880060486118</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.555586927127117</v>
@@ -30227,7 +29963,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.428134851097276</v>
+        <v>1.43551831422798</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.542305999387215</v>
@@ -30316,7 +30052,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.433017912343612</v>
+        <v>1.435013224526694</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.510112327168064</v>
@@ -30405,7 +30141,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.432828740903459</v>
+        <v>1.433301326666507</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.452935642266578</v>
@@ -30494,7 +30230,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.256127395493585</v>
+        <v>1.260582130263111</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.489059412001735</v>
@@ -30583,7 +30319,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.254401222155661</v>
+        <v>1.258179278914025</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.483348672644413</v>
@@ -30672,7 +30408,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.25238160266043</v>
+        <v>1.256195654308156</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.498336352873105</v>
@@ -30761,7 +30497,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.25063462085091</v>
+        <v>1.25314462485507</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.482525086934209</v>
@@ -30850,7 +30586,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.250642855746104</v>
+        <v>1.254431818342223</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.478858291125488</v>
@@ -30939,7 +30675,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.250038248037707</v>
+        <v>1.254395740720791</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.484937025419666</v>
@@ -31028,7 +30764,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.247567555307386</v>
+        <v>1.250044917724197</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.487527257130673</v>
@@ -31117,7 +30853,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.246234523564603</v>
+        <v>1.248781094263307</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.486523463324706</v>
@@ -31206,7 +30942,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.248464121014293</v>
+        <v>1.251159446931127</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.487323163622712</v>
@@ -31295,7 +31031,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.255649891907784</v>
+        <v>1.257969465403074</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.483603036180807</v>
@@ -31384,7 +31120,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.256652081136635</v>
+        <v>1.260841948997654</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.489734810904147</v>
@@ -31473,7 +31209,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.2602739130484</v>
+        <v>1.264473492992152</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.490381203259336</v>
@@ -31562,7 +31298,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.267782890416745</v>
+        <v>1.270688987039575</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.498690272519632</v>
@@ -31651,7 +31387,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.273361711779992</v>
+        <v>1.275097881661408</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.483048818346696</v>
@@ -31740,7 +31476,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.375118489094032</v>
+        <v>1.37910931982651</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.712748828651503</v>
@@ -31829,7 +31565,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.457558213054187</v>
+        <v>1.459899716514249</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.712631254805419</v>
@@ -31918,7 +31654,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.455943172398057</v>
+        <v>1.460312874259486</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.152931229912328</v>
@@ -32007,7 +31743,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.464186531605475</v>
+        <v>1.46366436183319</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.138052153516702</v>
@@ -32096,7 +31832,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.471872037998249</v>
+        <v>1.466515868515961</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.997732054272547</v>
@@ -32185,7 +31921,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.471002147119579</v>
+        <v>1.468757160287721</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.211352635199594</v>
@@ -32274,7 +32010,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.464124949235599</v>
+        <v>1.465175202107723</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.844525979425503</v>
@@ -32363,7 +32099,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.463082636145582</v>
+        <v>1.46453575814268</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.889275977002419</v>
@@ -32452,7 +32188,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.465450811981424</v>
+        <v>1.467303155761939</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.978375087596274</v>
@@ -32738,7 +32474,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50852785746899</v>
+        <v>1.533435495309192</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.379107159814049</v>
@@ -32827,7 +32563,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.504588629454332</v>
+        <v>1.530136418897721</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.383522774895245</v>
@@ -32916,7 +32652,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.529712773797823</v>
+        <v>1.554113892083506</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.447819265518455</v>
@@ -33005,7 +32741,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.548802973864362</v>
+        <v>1.562813448406098</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.419081228738225</v>
@@ -33094,7 +32830,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575947474422633</v>
+        <v>1.576020622058734</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.382483170541636</v>
@@ -33183,7 +32919,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600370964576939</v>
+        <v>1.601664980576335</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.87807775971476</v>
@@ -33272,7 +33008,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.596261889556077</v>
+        <v>1.593497424682703</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.523034664753311</v>
@@ -33361,7 +33097,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.559311455400481</v>
+        <v>1.555409014451267</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.642484844597208</v>
@@ -33450,7 +33186,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542603030772231</v>
+        <v>1.535985218305252</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.797279984908015</v>
@@ -33539,7 +33275,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539997932202628</v>
+        <v>1.532222553881072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.745987665684199</v>
@@ -33628,7 +33364,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.546391242691604</v>
+        <v>1.530603820719464</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.822897509866587</v>
@@ -33717,7 +33453,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.488604872608743</v>
+        <v>1.472755388917512</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.891346891142767</v>
@@ -33806,7 +33542,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.47964146083041</v>
+        <v>1.463030993855951</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.911162285550728</v>
@@ -33895,7 +33631,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.478998201361645</v>
+        <v>1.461168306445726</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.890183350396303</v>
@@ -33984,7 +33720,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.47657052748498</v>
+        <v>1.453912480042996</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.899807969475524</v>
@@ -34073,7 +33809,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.470906442631443</v>
+        <v>1.447213457300436</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.876791474694539</v>
@@ -34162,7 +33898,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.474587854822362</v>
+        <v>1.454306798411585</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.93370544975807</v>
@@ -34251,7 +33987,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.470120624306358</v>
+        <v>1.446072250758165</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.9413346944995</v>
@@ -34340,7 +34076,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.467501870597803</v>
+        <v>1.448478131552497</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.960308646379189</v>
@@ -34429,7 +34165,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.478120602555121</v>
+        <v>1.4599002974369</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.937482006320699</v>
@@ -34518,7 +34254,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.480869660261324</v>
+        <v>1.461914202159245</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.983266200633894</v>
@@ -34607,7 +34343,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487646316020278</v>
+        <v>1.468618568055506</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.974393404550298</v>
@@ -34696,7 +34432,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.489390029136132</v>
+        <v>1.471206508111361</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.939222988520104</v>
@@ -34785,7 +34521,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.489328851916661</v>
+        <v>1.474638214795284</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.925554150884279</v>
@@ -34874,7 +34610,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.484214038068141</v>
+        <v>1.469576904114217</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.959013871674649</v>
@@ -34963,7 +34699,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.486360156626102</v>
+        <v>1.475588492465787</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.958041028405386</v>
@@ -35052,7 +34788,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.540754922045239</v>
+        <v>1.529870522839653</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.124026865774415</v>
@@ -35141,7 +34877,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.555975716405952</v>
+        <v>1.545060903688103</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.278585861647616</v>
@@ -35230,7 +34966,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546514481081324</v>
+        <v>1.531873678462087</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.296498049465286</v>
@@ -35319,7 +35055,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.548878029048245</v>
+        <v>1.535072402866569</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.259357148975834</v>
@@ -35408,7 +35144,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.562980376109312</v>
+        <v>1.5470848754951</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.045025403704444</v>
@@ -35497,7 +35233,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.577275893611699</v>
+        <v>1.5633843820598</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.456509976122614</v>
@@ -35586,7 +35322,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.57799876846736</v>
+        <v>1.562255106110944</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.978675862605842</v>
@@ -35675,7 +35411,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.570992582927702</v>
+        <v>1.556716527553383</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.077454430884054</v>
@@ -35764,7 +35500,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.551023965135646</v>
+        <v>1.539238250462008</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.379349765143667</v>
@@ -35853,7 +35589,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.542340123183789</v>
+        <v>1.531453827477659</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.140529249409886</v>
@@ -35942,7 +35678,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.549891220852458</v>
+        <v>1.541925163041635</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.331307343110146</v>
@@ -36031,7 +35767,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563895348399855</v>
+        <v>1.553133059542715</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.244639498922131</v>
@@ -36120,7 +35856,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.566034323685682</v>
+        <v>1.551490473337148</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.096300256153651</v>
@@ -36209,7 +35945,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.565782036717494</v>
+        <v>1.551757928552614</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.325364807999059</v>
@@ -36298,7 +36034,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.56003470637499</v>
+        <v>1.544032694093255</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.171428761067075</v>
@@ -36387,7 +36123,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.552714737897808</v>
+        <v>1.539405873992117</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.27333421720071</v>
@@ -36476,7 +36212,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.537281979055647</v>
+        <v>1.520763967517333</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.728037137394889</v>
@@ -36565,7 +36301,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.525489252383671</v>
+        <v>1.514536358320022</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.292239632208021</v>
@@ -36654,7 +36390,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515609646886095</v>
+        <v>1.509655813100287</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.310812901923609</v>
@@ -36743,7 +36479,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.517285335779714</v>
+        <v>1.511950917557474</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.242514733091395</v>
@@ -36832,7 +36568,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509329039259413</v>
+        <v>1.494448429898667</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.304487004690706</v>
@@ -36921,7 +36657,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517803418176173</v>
+        <v>1.503823864411963</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.330292982147999</v>
@@ -37010,7 +36746,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522211157914857</v>
+        <v>1.507351055099194</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.316188667586446</v>
@@ -37099,7 +36835,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512375002878708</v>
+        <v>1.500947670320544</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.330350457693013</v>
@@ -37188,7 +36924,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.516091573782632</v>
+        <v>1.503034207755842</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.235675242591086</v>
@@ -37277,7 +37013,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.508783256290376</v>
+        <v>1.494592626058199</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.360574096655499</v>
@@ -37366,7 +37102,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.505169299349544</v>
+        <v>1.490382759687882</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.302286920562738</v>
@@ -37455,7 +37191,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.504129112642503</v>
+        <v>1.489284760449591</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.111505316756733</v>
@@ -37544,7 +37280,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.507434962884164</v>
+        <v>1.490384585009878</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.341930396355485</v>
@@ -37633,7 +37369,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.509143547838627</v>
+        <v>1.498499148484577</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.335331929609604</v>
@@ -37722,7 +37458,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.516552187886445</v>
+        <v>1.503133942402859</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.219869573024584</v>
@@ -37811,7 +37547,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.527475472598916</v>
+        <v>1.513328227868866</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.143226446251579</v>
@@ -37900,7 +37636,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.560907850249594</v>
+        <v>1.544416346042813</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.678965214813165</v>
@@ -37989,7 +37725,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.567427849919702</v>
+        <v>1.54705733411239</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.894217094655085</v>
@@ -38078,7 +37814,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.55765456687708</v>
+        <v>1.535622396948603</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.68450530019388</v>
@@ -38167,7 +37903,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.559680541594137</v>
+        <v>1.541559853056921</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.813356074890101</v>
@@ -38256,7 +37992,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.556120789072301</v>
+        <v>1.537890787823982</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.833652976606651</v>
@@ -38345,7 +38081,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.557888876191409</v>
+        <v>1.537195074995815</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.750721020490229</v>
@@ -38434,7 +38170,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.53435914270716</v>
+        <v>1.512285595662001</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.478567369695326</v>
@@ -38523,7 +38259,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.521989372020194</v>
+        <v>1.502739867202478</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.510241965641199</v>
@@ -38612,7 +38348,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.526705545167045</v>
+        <v>1.507737105908794</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.41043906328659</v>
@@ -38701,7 +38437,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.532665082113163</v>
+        <v>1.512799344965564</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.5192259963441</v>
@@ -38790,7 +38526,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.535249946053383</v>
+        <v>1.516691273017179</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.483172245835639</v>
@@ -38879,7 +38615,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.539525730434294</v>
+        <v>1.521283524492634</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.562852700491051</v>
@@ -38968,7 +38704,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.541543495571071</v>
+        <v>1.517034653361734</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.480433603988232</v>
@@ -39057,7 +38793,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.541684985059252</v>
+        <v>1.513211744501802</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.519849434251833</v>
@@ -39146,7 +38882,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.536359580501201</v>
+        <v>1.50664201770859</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.509661718976388</v>
@@ -39235,7 +38971,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.534207396202249</v>
+        <v>1.508410780979757</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.410603607788808</v>
@@ -39324,7 +39060,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.532539899677497</v>
+        <v>1.503555606014228</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.457037091574788</v>
@@ -39413,7 +39149,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.53703024701715</v>
+        <v>1.507155349254041</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.46938523607073</v>
@@ -39502,7 +39238,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.543835952649675</v>
+        <v>1.510514086073376</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.561825466332827</v>
@@ -39591,7 +39327,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.547078323987113</v>
+        <v>1.511725696448504</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.559119073608217</v>
@@ -39680,7 +39416,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.568152430803779</v>
+        <v>1.522191455376998</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.700566815100278</v>
@@ -39769,7 +39505,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.578622094791828</v>
+        <v>1.53786085797752</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.953188968736922</v>
@@ -39858,7 +39594,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.573979437558778</v>
+        <v>1.534562503103368</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.385224984078493</v>
@@ -39947,7 +39683,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.580576501081283</v>
+        <v>1.538418445727888</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.369184481277325</v>
@@ -40036,7 +39772,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.576232603825321</v>
+        <v>1.535399280533205</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.114675763374254</v>
@@ -40125,7 +39861,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.582471048069435</v>
+        <v>1.539900427393174</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.521137606254125</v>
@@ -40214,7 +39950,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.54606588485931</v>
+        <v>1.51133824687919</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.699983702137142</v>
@@ -40303,7 +40039,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.53829158655522</v>
+        <v>1.50883802517909</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.681739105142935</v>
@@ -40392,7 +40128,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.533198446574418</v>
+        <v>1.509046965214217</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.653497817313418</v>
@@ -40678,7 +40414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.233310756185215</v>
+        <v>1.236610142078428</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.989232207333561</v>
@@ -40767,7 +40503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.227493846815978</v>
+        <v>1.218984888782118</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.762885663923771</v>
@@ -40856,7 +40592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.217904424316033</v>
+        <v>1.214838619678545</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.731839876714038</v>
@@ -40945,7 +40681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.235967475828089</v>
+        <v>1.231025968131261</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.756673361848526</v>
@@ -41034,7 +40770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.272868878934029</v>
+        <v>1.275200796181801</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.558219182508626</v>
@@ -41123,7 +40859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.317334322223987</v>
+        <v>1.321967723194449</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.586833821292661</v>
@@ -41212,7 +40948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.307495385104119</v>
+        <v>1.30746116939364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.626090007988114</v>
@@ -41301,7 +41037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.307144357529604</v>
+        <v>1.307199052241827</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.639336558840768</v>
@@ -41390,7 +41126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.31397496590834</v>
+        <v>1.313652266902466</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.646982012022944</v>
@@ -41479,7 +41215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.310708419038234</v>
+        <v>1.309339272340299</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.634063843419075</v>
@@ -41568,7 +41304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.299658833479317</v>
+        <v>1.299316367552261</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.621879569580209</v>
@@ -41657,7 +41393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.301837929751056</v>
+        <v>1.298793269961344</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.611585212976973</v>
@@ -41746,7 +41482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.30905887151798</v>
+        <v>1.304622234762795</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.624039033227206</v>
@@ -41835,7 +41571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.315402823475086</v>
+        <v>1.3068951342144</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.628887195895044</v>
@@ -41924,7 +41660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.317916266044021</v>
+        <v>1.305388498008713</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.64088497862357</v>
@@ -42013,7 +41749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.317910730083631</v>
+        <v>1.30638374544169</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.630211324922633</v>
@@ -42102,7 +41838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.339732158596111</v>
+        <v>1.329164099386759</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.643973151406072</v>
@@ -42191,7 +41927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.308670126445212</v>
+        <v>1.301114555458359</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.880460732128028</v>
@@ -42280,7 +42016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.299530681460713</v>
+        <v>1.294223232718194</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.903426747635862</v>
@@ -42369,7 +42105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.294701399170674</v>
+        <v>1.288993562216539</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.908706590987703</v>
@@ -42458,7 +42194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.295884972128023</v>
+        <v>1.288595656990517</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.940182651547667</v>
@@ -42547,7 +42283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.292703923388534</v>
+        <v>1.288557584089465</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.946676848350409</v>
@@ -42636,7 +42372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.296369727399392</v>
+        <v>1.295497644571199</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.953808421140088</v>
@@ -42725,7 +42461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.289434845908225</v>
+        <v>1.287155313688434</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.953957792783733</v>
@@ -42814,7 +42550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.305217811939866</v>
+        <v>1.301934980740381</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.86691033105505</v>
@@ -42903,7 +42639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.306641475889164</v>
+        <v>1.302776023909169</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.953779039440891</v>
@@ -42992,7 +42728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.304252565825458</v>
+        <v>1.298680323249858</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.976356668962524</v>
@@ -43081,7 +42817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.309608403968828</v>
+        <v>1.303846029698009</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.957029458430164</v>
@@ -43170,7 +42906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.30621511856827</v>
+        <v>1.303344207174685</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.994632501941721</v>
@@ -43259,7 +42995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.305070228176438</v>
+        <v>1.302356608353001</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.993944079616637</v>
@@ -43348,7 +43084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.306252924598347</v>
+        <v>1.305112100797033</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.977067330072038</v>
@@ -43437,7 +43173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.374704562645873</v>
+        <v>1.366766131892472</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.012308806704778</v>
@@ -43526,7 +43262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.408443123339058</v>
+        <v>1.396654872711297</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.500571814538463</v>
@@ -43615,7 +43351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.407869001560332</v>
+        <v>1.397859986440894</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.537100509542732</v>
@@ -43704,7 +43440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.410443954511421</v>
+        <v>1.404464441083143</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.491766008286765</v>
@@ -43793,7 +43529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.42469260592364</v>
+        <v>1.415124609628306</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.643931720844101</v>
@@ -43882,7 +43618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.445717793144325</v>
+        <v>1.434877035011068</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.657619138770727</v>
@@ -43971,7 +43707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.456504318284231</v>
+        <v>1.440159654894242</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.767267044789765</v>
@@ -44060,7 +43796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.461825626107379</v>
+        <v>1.44677897890115</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.719888099671242</v>
@@ -44149,7 +43885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.45948479992964</v>
+        <v>1.446831011161554</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.542013530530183</v>
@@ -44238,7 +43974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.482526085539337</v>
+        <v>1.466141807176429</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.516217803418868</v>
@@ -44327,7 +44063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.492718973127971</v>
+        <v>1.481819314631957</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.769053989387161</v>
@@ -44416,7 +44152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.484242008382337</v>
+        <v>1.470630038666877</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.941186243924707</v>
@@ -44505,7 +44241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.461312597497137</v>
+        <v>1.450044716592273</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.269626165038343</v>
@@ -44594,7 +44330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.4513403129597</v>
+        <v>1.444493099951128</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.40975829290297</v>
@@ -44683,7 +44419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.454652994590883</v>
+        <v>1.445716398757108</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.342273457764385</v>
@@ -44772,7 +44508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.445953261971983</v>
+        <v>1.437291999744789</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.383164438625947</v>
@@ -44861,7 +44597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.437871851583685</v>
+        <v>1.433048015704387</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.35363938300775</v>
@@ -44950,7 +44686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.442578650242049</v>
+        <v>1.433886793967182</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.195182423391654</v>
@@ -45039,7 +44775,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.447909011934815</v>
+        <v>1.436362448392052</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.408932197576502</v>
@@ -45128,7 +44864,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.458495400760941</v>
+        <v>1.450888441140634</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.325215711912501</v>
@@ -45217,7 +44953,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.46003081247173</v>
+        <v>1.452955956851446</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.392172026631633</v>
@@ -45306,7 +45042,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.45877774205709</v>
+        <v>1.453534640463361</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.374363346562048</v>
@@ -45395,7 +45131,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.461818064734702</v>
+        <v>1.46034879691057</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.357550339870353</v>
@@ -45484,7 +45220,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.472659396136535</v>
+        <v>1.468631559888678</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.332719187441841</v>
@@ -45573,7 +45309,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.46512610284505</v>
+        <v>1.467811647888446</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.34260203311241</v>
@@ -45662,7 +45398,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.456767025262929</v>
+        <v>1.460753307296378</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.345885058627131</v>
@@ -45751,7 +45487,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.457819155086342</v>
+        <v>1.455646808941685</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.186195504238492</v>
@@ -45840,7 +45576,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.492726913369094</v>
+        <v>1.493279242911521</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.754894375503013</v>
@@ -45929,7 +45665,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.502958373357248</v>
+        <v>1.4992792206348</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.725479612244889</v>
@@ -46018,7 +45754,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.407209423124924</v>
+        <v>1.408671526761437</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.817286432103809</v>
@@ -46107,7 +45843,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.389051143819209</v>
+        <v>1.392570309748677</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.804341097375265</v>
@@ -46196,7 +45932,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.391752650800548</v>
+        <v>1.394645565604234</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.842715285973418</v>
@@ -46285,7 +46021,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.391504201250942</v>
+        <v>1.393942334535961</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.872515336632902</v>
@@ -46374,7 +46110,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.37278373708761</v>
+        <v>1.374666398185514</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.874210430813795</v>
@@ -46463,7 +46199,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.367072395181676</v>
+        <v>1.362503574097729</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.851018588603666</v>
@@ -46552,7 +46288,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.364333988454557</v>
+        <v>1.358300291757178</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.889818916717599</v>
@@ -46641,7 +46377,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.348971906428058</v>
+        <v>1.339920802989007</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.85210789017481</v>
@@ -46730,7 +46466,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.350317442873622</v>
+        <v>1.339576071453751</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.858541007007176</v>
@@ -46819,7 +46555,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.346246549364481</v>
+        <v>1.336243016302018</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.860469356947585</v>
@@ -46908,7 +46644,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.35105947464898</v>
+        <v>1.33593610254668</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.885432567545405</v>
@@ -46997,7 +46733,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.344063754670568</v>
+        <v>1.327565787750044</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.889117137846495</v>
@@ -47086,7 +46822,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.35275829204206</v>
+        <v>1.338582984229357</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.866489727313366</v>
@@ -47175,7 +46911,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.359593548918655</v>
+        <v>1.34520195434278</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.889644551741096</v>
@@ -47264,7 +47000,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.352321242890971</v>
+        <v>1.341729071260945</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.935459362809984</v>
@@ -47353,7 +47089,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.390798391856955</v>
+        <v>1.376598997634427</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.081533834728204</v>
@@ -47442,7 +47178,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.392285416536497</v>
+        <v>1.377154926606221</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.480275875052791</v>
@@ -47531,7 +47267,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.391195943762369</v>
+        <v>1.369487751144213</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.605985648678342</v>
@@ -47620,7 +47356,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.397194513608513</v>
+        <v>1.375004389001305</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.631900560733885</v>
@@ -47709,7 +47445,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.401707811909782</v>
+        <v>1.38257996327263</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.623393727269975</v>
@@ -47798,7 +47534,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.396577837604911</v>
+        <v>1.382754809478503</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.549119064422287</v>
@@ -47887,7 +47623,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.40659020893482</v>
+        <v>1.394620038696269</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.432702845709933</v>
@@ -47976,7 +47712,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.412175426961027</v>
+        <v>1.398895545783081</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.605581818255987</v>
@@ -48065,7 +47801,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.40321055883332</v>
+        <v>1.390232224651117</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.481362766967051</v>
@@ -48154,7 +47890,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.306461270120981</v>
+        <v>1.290669882918267</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.611109051403257</v>
@@ -48243,7 +47979,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.269361583184496</v>
+        <v>1.266972258500344</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.6153944084029</v>
@@ -48332,7 +48068,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.266448487941715</v>
+        <v>1.263451792654803</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.618210699803592</v>
@@ -48618,7 +48354,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.150782810598232</v>
+        <v>1.150420957971102</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.215916806117339</v>
@@ -48707,7 +48443,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.143596665395789</v>
+        <v>1.143278460847052</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.187095201653223</v>
@@ -48796,7 +48532,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.146897406887456</v>
+        <v>1.147827470052137</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.190424922938004</v>
@@ -48885,7 +48621,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.148612158988332</v>
+        <v>1.149622001052697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.195776204494247</v>
@@ -48974,7 +48710,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.152473809048112</v>
+        <v>1.154642273171251</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.194081620078623</v>
@@ -49063,7 +48799,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.155213578687194</v>
+        <v>1.155881986646536</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.04803453681673</v>
@@ -49152,7 +48888,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.155311908033354</v>
+        <v>1.153382367477999</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.931048966000547</v>
@@ -49241,7 +48977,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.149504871930983</v>
+        <v>1.149762138734666</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.138975804095811</v>
@@ -49330,7 +49066,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.151028688245677</v>
+        <v>1.150469642532603</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.142885324008884</v>
@@ -49419,7 +49155,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.135419266625806</v>
+        <v>1.135798809799178</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.20075922690889</v>
@@ -49508,7 +49244,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.142306736313168</v>
+        <v>1.141585878530544</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.160076713464639</v>
@@ -49597,7 +49333,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.155507946202723</v>
+        <v>1.152760433141868</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.020308188599487</v>
@@ -49686,7 +49422,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.147849080865868</v>
+        <v>1.145044389977871</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.171754733327262</v>
@@ -49775,7 +49511,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.157087437497391</v>
+        <v>1.149500664756256</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.180287384516107</v>
@@ -49864,7 +49600,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.167992989162576</v>
+        <v>1.158981902012305</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.968620274431296</v>
@@ -49953,7 +49689,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.159761584894345</v>
+        <v>1.146818351285701</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.986038225111571</v>
@@ -50042,7 +49778,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.171684362656115</v>
+        <v>1.161387000737334</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.139878482055671</v>
@@ -50131,7 +49867,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.160957183150039</v>
+        <v>1.150231277922539</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.125084956918262</v>
@@ -50220,7 +49956,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.161279179199757</v>
+        <v>1.149322886857786</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.210670147396261</v>
@@ -50309,7 +50045,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.151526308770032</v>
+        <v>1.139303107615384</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.128735985280967</v>
@@ -50398,7 +50134,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.142959193844404</v>
+        <v>1.132218696473939</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.119172400017665</v>
@@ -50487,7 +50223,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.149805641370118</v>
+        <v>1.137109515855725</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.094136900475924</v>
@@ -50576,7 +50312,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.142892358095651</v>
+        <v>1.127674303767419</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.030308965080462</v>
@@ -50665,7 +50401,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.136923570781107</v>
+        <v>1.121300159484431</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.040593669283798</v>
@@ -50754,7 +50490,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.137642476369683</v>
+        <v>1.122339790298549</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.161382684499275</v>
@@ -50843,7 +50579,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.136133962815156</v>
+        <v>1.122157168323359</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.181039635181699</v>
@@ -50932,7 +50668,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.130652463024739</v>
+        <v>1.113543015993959</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.200275876440143</v>
@@ -51021,7 +50757,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.128026674775449</v>
+        <v>1.112408612371651</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.160221742991625</v>
@@ -51110,7 +50846,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.118665649558661</v>
+        <v>1.105241072955481</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.231856996112809</v>
@@ -51199,7 +50935,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.118998855327286</v>
+        <v>1.10426449833965</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.988176779812251</v>
@@ -51288,7 +51024,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.124812037342947</v>
+        <v>1.111041824750203</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.08486859288818</v>
@@ -51377,7 +51113,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.125851921690924</v>
+        <v>1.109665249746642</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.146390379560847</v>
@@ -51466,7 +51202,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.135738768409235</v>
+        <v>1.113790729078175</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.066043738173486</v>
@@ -51555,7 +51291,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.128157550896226</v>
+        <v>1.109373681889054</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.057600995046024</v>
@@ -51644,7 +51380,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.13259605129142</v>
+        <v>1.111230383698596</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.150773154057233</v>
@@ -51733,7 +51469,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.143680737695545</v>
+        <v>1.121295343774009</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.049807954067098</v>
@@ -51822,7 +51558,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.140135855072644</v>
+        <v>1.119628981716</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.122631084100318</v>
@@ -51911,7 +51647,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.1518792509745</v>
+        <v>1.129934296369342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.206673064455868</v>
@@ -52000,7 +51736,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.155951424967475</v>
+        <v>1.136813766920854</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.043778484705653</v>
@@ -52089,7 +51825,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.16046610101012</v>
+        <v>1.141165217303787</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.375832514576476</v>
@@ -52178,7 +51914,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.16033285187423</v>
+        <v>1.139846518640614</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.192092346931859</v>
@@ -52267,7 +52003,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.158743262305649</v>
+        <v>1.140445476908714</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.304799414939763</v>
@@ -52356,7 +52092,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.153929366146011</v>
+        <v>1.130920254706475</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.24599324092361</v>
@@ -52445,7 +52181,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.16023354783037</v>
+        <v>1.136893890118182</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.183341657309051</v>
@@ -52534,7 +52270,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.165605197090198</v>
+        <v>1.140155086547423</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.161368977031412</v>
@@ -52623,7 +52359,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.159408819912218</v>
+        <v>1.136451564527182</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.066737635494929</v>
@@ -52712,7 +52448,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.156278154794031</v>
+        <v>1.136281482333173</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.112344492697221</v>
@@ -52801,7 +52537,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.160836161054948</v>
+        <v>1.144671360371638</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.056820580223563</v>
@@ -52890,7 +52626,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.166781895236811</v>
+        <v>1.148942009484634</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.111458652617285</v>
@@ -52979,7 +52715,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.155203906922461</v>
+        <v>1.140039546252956</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.182811802444443</v>
@@ -53068,7 +52804,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.153438707279465</v>
+        <v>1.138053142936705</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.139520985688251</v>
@@ -53157,7 +52893,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.155755033024997</v>
+        <v>1.135078526616393</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.075198937171091</v>
@@ -53246,7 +52982,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.146991581373997</v>
+        <v>1.128199465026351</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.985951897633269</v>
@@ -53335,7 +53071,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.155861084311576</v>
+        <v>1.136436406188172</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.012667312135101</v>
@@ -53424,7 +53160,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.152936615726534</v>
+        <v>1.132939111190947</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.082860882417902</v>
@@ -53513,7 +53249,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.15198257251157</v>
+        <v>1.132746312704874</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.105595183815629</v>
@@ -53602,7 +53338,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.158076025853438</v>
+        <v>1.139250964074407</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.070158798681224</v>
@@ -53691,7 +53427,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.158354851158812</v>
+        <v>1.140062016695554</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.905523687787001</v>
@@ -53780,7 +53516,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.156854725327702</v>
+        <v>1.142107585773044</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.029309564858679</v>
@@ -53869,7 +53605,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.157132667781538</v>
+        <v>1.14240364653602</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.828014642047603</v>
@@ -53958,7 +53694,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.163166855127981</v>
+        <v>1.147504002416408</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.959102250612394</v>
@@ -54047,7 +53783,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.164428018172128</v>
+        <v>1.147242474631782</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.994193182720675</v>
@@ -54136,7 +53872,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.159364694613379</v>
+        <v>1.137903432833925</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.050061373895949</v>
@@ -54225,7 +53961,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.152440096664826</v>
+        <v>1.137170567827585</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.956928739223154</v>
@@ -54314,7 +54050,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.157780648122687</v>
+        <v>1.140669174607167</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.053117874159884</v>
@@ -54403,7 +54139,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.150605032511451</v>
+        <v>1.135753605423223</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.004333372788743</v>
@@ -54492,7 +54228,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.163031405385763</v>
+        <v>1.147848812769952</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.784868334655687</v>
@@ -54581,7 +54317,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.159833099768327</v>
+        <v>1.147574153356515</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.108473320974134</v>
@@ -54670,7 +54406,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.157385895177661</v>
+        <v>1.143852955569844</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.083233541465129</v>
@@ -54759,7 +54495,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.15697460302707</v>
+        <v>1.146118110018658</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.057745918559458</v>
@@ -54848,7 +54584,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.170767579431995</v>
+        <v>1.158875189290966</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.172633444680792</v>
@@ -54937,7 +54673,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.172697774866857</v>
+        <v>1.158695426847588</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.199746335908513</v>
@@ -55026,7 +54762,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.166984118307778</v>
+        <v>1.156147522048846</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.292127863234779</v>
@@ -55115,7 +54851,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.17633126588748</v>
+        <v>1.166258695582295</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.108558208327375</v>
@@ -55204,7 +54940,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.171128078872379</v>
+        <v>1.163821799071915</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.116988470821557</v>
@@ -55293,7 +55029,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.171520764432037</v>
+        <v>1.165152587043986</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.337761299766042</v>
@@ -55382,7 +55118,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.17997817570378</v>
+        <v>1.162975288086319</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.244104131296539</v>
@@ -55471,7 +55207,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.179349693956931</v>
+        <v>1.167501486601537</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.050887086772875</v>
@@ -55560,7 +55296,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.189472950056915</v>
+        <v>1.175872258829174</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.347960158240693</v>
@@ -55649,7 +55385,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.209922781735358</v>
+        <v>1.183671420996767</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.030014346809993</v>
@@ -55738,7 +55474,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.191006885109567</v>
+        <v>1.166152046312656</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.179102578861154</v>
@@ -55827,7 +55563,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.19226580873524</v>
+        <v>1.169558325223387</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.061437393683594</v>
@@ -55916,7 +55652,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.187415843536595</v>
+        <v>1.164044759829341</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.122103262255136</v>
@@ -56005,7 +55741,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.192348412409012</v>
+        <v>1.172301608515201</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.107461468661439</v>
@@ -56094,7 +55830,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.191851668549884</v>
+        <v>1.16998122986729</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.213583846787615</v>
@@ -56183,7 +55919,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.182953321747954</v>
+        <v>1.15884331746189</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.197716353917411</v>
@@ -56272,7 +56008,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.191693683857518</v>
+        <v>1.169271666367948</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.04639858580495</v>
